--- a/finetuning/it_datasets/qa_dataset/qa_it_korba_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_korba_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA85"/>
+  <dimension ref="A1:AB85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,66 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated Cafe, check out Cafe du Lac located at HVJ9+637 Cafe du Lac, Korba. This popular destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them at 58 218 548.</t>
+          <t>Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated café in Korba that serves a range of categories and offers a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Ancien Pont De Korba** to appreciate its scenic views.
+Mid-Morning: Visit the **ATPNE Korba** museum to delve into the region's captivating history and culture.
+Midday: Savor the authentic flavors of Tunisian cuisine at the highly-rated **Waffle Cap**, known for its friendly service.
+Afternoon: Stroll along the picturesque **Plage Korba**, where you can indulge in sunbathing, swimming, or simply revel in the coastal beauty.
+Evening: Immerse yourself in the local nightlife by visiting **Dio Scatenato**, a vibrant bar offering a lively ambiance and friendly staff.
+Night: Enjoy a relaxing evening at **Cafe Arabesque. H**, a popular 24-hour cafeteria with a cozy atmosphere, perfect for unwinding and sipping on refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -782,14 +841,66 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great place to stay, check out Africa Jade Thalasso Hotel Korba located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Complexe hotelier, Restaurant, Piscine, Centre de bien-etre. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>In the heart of Korba, which top-rated hotel with exceptional categories for Hotel, Complexe hotelier, Restaurant, Piscine, and Centre de bien-etre welcomes guests for an unforgettable stay?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba, a picturesque beach with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+Mid-Morning: Visit the Fontaine de Korba, a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city.
+Midday: Try local cuisine at Restaurant El Baldi Chaouch, a restaurant specializing in poultry dishes.
+Afternoon: Engage in outdoor activities like cycling or hiking at Lac de Korba (Cite jerbi.Essabkha), a picturesque park that offers a serene escape amidst the bustling city.
+Evening: Experience cultural immersion at ATPNE Korba, a museum that offers a variety of exhibits on the history and culture of the region.
+Night: Relax with a drink at Dio Scatenato, a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -899,14 +1010,66 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Waffle Cap located at Bd de l'Environnement, Korba 8070. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 19:30-04:00. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://linktr.ee/wafflecap or call them at 70 295 400.</t>
+          <t>Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated Restaurant, Waffle Cap, that stays open late and has a prime location?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Ancien Pont De Korba** bridge, a scenic spot popular with locals and tourists alike.
+Mid-Morning: Visit **ATPNE Korba**, a museum offering insights into the region's rich history and culture.
+Midday: Savor the authentic flavors of Tunisian cuisine at **Street food el benna**, a highly-rated restaurant known for its traditional dishes.
+Afternoon: Relax and soak up the sun at **Plage de Korba**, a picturesque beach with crystal-clear waters and soft white sand.
+Evening: Immerse yourself in the vibrant local culture at **Dio Scatenato**, a lively bar with a convivial atmosphere and friendly staff.
+Night: Retire to the charming **Residence Machmoucha**, a cozy accommodation offering a comfortable and convenient stay in the heart of Korba.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1016,13 +1179,66 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Bel Horizon located at HV73+65H C27, Korba. With a rating of 4.6, it's a must-visit spot for Restaurant lovers. Open daily from 12:00-23:30, it offers a range of categories to choose from. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>**Question:**
-Where is the top-rated restaurant in Korba that serves a wide variety of cuisines, boasts a 4.6 rating, and operates from noon until 11:30 PM daily?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba for a refreshing beach day, enjoying the sun, sand, and water.
+Mid-Morning: Visit **Ancien Pont De Korba** for scenic views and cultural immersion.
+Midday: Try local cuisine at Restaurant El Baldi Chaouch for an authentic dining experience.
+Afternoon: Visit the ATPNE Korba museum to learn about the region's history and culture.
+Evening: Enjoy a relaxing evening at **Cafe Arabesque. H**, savoring their delicious beverages and snacks.
+Night: Experience the vibrant nightlife at Dio Scatenato, known for its excellent atmosphere and friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a highly-rated cafe located in Rue de la Liberte, Korba, Tunisia. It has received an average rating of 4.5 out of 5, based on 6 reviews. Unfortunately, no additional information regarding its description, featured image, website, or opening hours is available.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+W.Food is a restaurant located in Korba, Tunisia. It offers a variety of dishes and is rated 5.0 stars by its customers. You can reach the restaurant by phone at 90 385 392.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1132,12 +1348,67 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Conseiller en gestion des affaires, check out KORBA,Tunisia located at rue sadek toumi, 26/2. With a rating of 4.2, it's a must-visit spot for Conseiller en gestion des affaires lovers. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.574846845183, 10.867309122048. For more details, visit their website at http://tgplines.wix.com/wikilines-tunisia or call them at 99 997 602.</t>
+          <t>KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated Conseiller en gestion des affaires in Korba, Tunisia, with GPS coordinates of 36.574846845183, 10.867309122048 and a rating of 4.2?</t>
+          <t>Day Plan:
+Morning: Explore the historical **Ancien Pont De Korba** and capture its scenic beauty.
+Mid-Morning: Immerse yourself in art and history at **ATPNE Korba**, renowned for its captivating exhibits.
+Midday: Delight in authentic Tunisian cuisine at the highly-rated **Restaurant PICCALILLI Korba**, savoring the local flavors.
+Afternoon: Unwind at the pristine **Plage de Korba**, taking a refreshing dip or basking in the sun's warmth.
+Evening: Embark on a guided tour of the **Lac de Korba (Cite jerbi.Essabkha)**, reveling in the tranquility of this scenic park.
+Night: End the day on a vibrant note at **Dio Scatenato**, where you can relax with a drink and soak up the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1243,14 +1514,66 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Bella Artista located at Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:30-01:30. To get there, use these GPS coordinates: 36.575090294408, 10.866672274972. For more details, visit their website or call them at 90 262 340.</t>
+          <t>Bella Artista locates in Korba (Tunisia), at Bd de l'Environnement. With a 4.6 rating based on 16 reviews, it is one of the recommended restaurants in the zone. They are open from 7:30am to 1:30am. They have a website but the URL is not provided in the data.</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>What is the highly rated restaurant in Korba, known for its varied Restaurant options, with GPS coordinates of 36.575090294408, 10.866672274972?</t>
+          <t>Day Plan:
+**Morning:** Explore **Plage Korba** for its picturesque beachfront and clear waters.
+**Mid-Morning:** Try local cuisine at **Fast food Abderrahmen** for highly-rated Tunisian dishes.
+**Midday:** Visit the **Africa Jade Thalasso Hotel Korba** for a luxurious beachside experience and lunch.
+**Afternoon:** Enjoy a guided tour of **ATPNE Korba** museum to delve into the region's history and culture.
+**Evening:** Relax with a soothing massage at il **Castello B&amp;B**, a charming guest house with exceptional service.
+**Night:** Head to **Cafe Arabesque. H** for a cozy ambiance and a delightful 24-hour cafeteria experience.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+This is the Facebook page of Fast food Abderrahmen located at Korba, Tunisia. The Restaurant is highly rated online with 5.0 scores. With this, you can call them on 55 607 935.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1675,72 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out CAFE MIAMI located at HVF6+P6M CAFE MIAMI, Rue 2 Mars, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 15:00-22:00. To get there, use these GPS coordinates: 36.573264102529, 10.863528601056. For more details, visit their website at https://www.google.com/maps/place/CAF%C3%89+MIAMI/data=!4m7!3m6!1s0x1302bbba6b6cb7a1:0x69ed0332099126f7!8m2!3d36.5743305!4d10.8605448!16s%2Fg%2F12ml2mvkh!19sChIJobdsa7q7AhMR9yaRCTID7Wk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated cafe in Korba that caters to Cafe lovers?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore **Korba (Tunisia)**, a city known for its beach and business consulting services.
+**Mid-Morning:**
+* Try local cuisine at **Restaurant Bel Horizon**, known for its seafood dishes, wines, and cozy ambiance.
+**Midday:**
+* Visit the **Africa Jade Thalasso Hotel Korba**, a luxurious beachfront resort with an outdoor pool, restaurants, and a spa.
+**Afternoon:**
+* Enjoy the beautiful **Plage de Korba**, a beach perfect for swimming, sunbathing, and picnics.
+**Evening:**
+* Experience cultural immersion at **ATPNE Korba**, a museum showcasing the region's history and culture.
+**Night:**
+* Relax with a drink at **Dio Scatenato**, a bar with a friendly atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant Bel Horizon is a highly rated restaurant located in korba (coordinates: 50.6903346, 4.6752439). The restaurant is known for its seafood dishes, wines and reasonable prices, as highlighted by customer reviews. Operating from 12:00-23:30, the restaurant boasts a cozy and welcoming ambiance, making it an ideal spot for a delightful dining experience.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1463,12 +1846,67 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Cafe du Lac located at HVJ9+637 Cafe du Lac, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-23:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+du+Lac/data=!4m7!3m6!1s0x1302bbb5f88d2323:0x1829834d84396fa1!8m2!3d36.5805484!4d10.867678!16s%2Fg%2F11c7sys_tx!19sChIJIyON-LW7AhMRoW85hE2DKRg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 58 218 548.</t>
+          <t>Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a popular cafe in Korba with a high rating, offering cafe-related experiences and a variety of options?</t>
+          <t>Day Plan:
+Morning: Exploring Ancien Pont De Korba and admiring its scenic views.
+Mid-Morning: Trying local cuisine at Restaurant Ezzedine Gabsi, known for its 5.0-star rating and delectable dishes.
+Midday: Visiting ATPNE Korba, a state-of-the-art museum showcasing a diverse range of engaging exhibits.
+Afternoon: Enjoying a relaxing afternoon at Plage Korba, a picturesque beachfront with crystal-clear waters and soft white sand.
+Evening: Indulging in a traditional dining experience at Street food el benna, a Tunisian restaurant offering a wide variety of dishes with a 5.0 rating.
+Night: Taking a leisurely stroll through the charming streets and enjoying the vibrant atmosphere of Korba.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Ezzedine Gabsi, located in Korba (coordinates: 22.3458, 82.69633), is a highly-rated (5.0 stars out of 3 reviews) restaurant. With a focus on a specific cuisine, this eatery is open every day from 10:00-00:00, offering a delectable dining experience.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1570,12 +2008,67 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Cafe spot, check out Cafe Marina at HVJ8+Q9H Cafe Marina, Korba. This highly-rated destination is perfect for anyone seeking a great Cafe experience. With a rating of 4.0 based on 13 reviews, it's a must-visit spot. Cafe Marina is open during these hours: 05:30-02:00. To get there, you can use these GPS coordinates: (22.3458, 82.69633). For more details, visit their link at https://www.google.com/maps/place/Caf%C3%A9+Marina/data=!4m7!3m6!1s0x1302bbb5bc168503:0xeae2b23b2d2ae3d5!8m2!3d36.5819438!4d10.8659722!16s%2Fg%2F1pv26hl2d!19sChIJA4UWvLW7AhMR1eMqLTuy4uo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>If you're seeking a highly-rated Cafe in Korba, which top-rated destination with a 4.0 rating based on 13 reviews is worth checking out?</t>
+          <t>Day Plan:
+Morning: Take a guided tour of ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits.
+Mid-Morning: Explore the picturesque Plage de Korba, a beach offering swimming, sunbathing, and scenic views.
+Midday: Try local cuisine at Restaurant El Baldi Chaouch, a highly-rated restaurant specializing in poultry dishes.
+Afternoon: Visit the ancient and iconic Ancien Pont De Korba, a bridge with scenic views.
+Evening: Indulge in a relaxing experience at Cafe Arabesque. H, a popular 24-hour cafeteria with a cozy ambiance.
+Night: Head to Dio Scatenato, a bar known for its great atmosphere and friendly staff, for a memorable evening out.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Ons is a cafe located in HVF5+438, Korba with coordinates (36.5727472, 10.85762). The cafe is open from 6am to 12am and offers a variety of services including coffee, tea, and pastries.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1677,14 +2170,66 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Le Bongout located at HVH6+2J5 Restaurant Le Bongout, Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 10:00-23:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at nan or call them at nan.</t>
+          <t>Discover Restaurant Le Bongout, a great place in Korba offering Restaurant services. Enjoy the great outdoors with the open-air seating and let the friendly staff help you with your needs. Call them ahead at to inquire about their hours.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where in Korba is the highly-rated Restaurant Le Bongout located, offering an enticing array of dining options?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba, enjoying scenic beachfront views and indulging in thrilling water activities like swimming.
+Mid-Morning: Engage in cultural immersion at ATPNE Korba, exploring the museum's captivating exhibits on the region's rich history and heritage.
+Midday: Savor authentic Tunisian cuisine at Naan house, savoring the delectable flavors of traditional Indian dishes.
+Afternoon: Experience outdoor recreation at Lac de Korba (Cite jerbi. Essabkha), immersing in its serene atmosphere and engaging in leisurely activities like picnicking or admiring the picturesque landscape.
+Evening: Indulge in the lively ambiance of Dio Scatenato, a vibrant bar renowned for its exceptional atmosphere and friendly service.
+Night: Unwind with a relaxing experience at "Il Castello B&amp;B," pampering yourself with cozy accommodations and attentive services, ensuring a restful and rejuvenating end to the day.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1782,12 +2327,66 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to grab a bite and a drink, check out CUP N CAKE. This top-rated cafe is perfect for coffee lovers and offers a range of delicious options to choose from. With a rating of 4.4, it's a must-visit spot. It's located at HVG7+HM7, Bd de l'Environnement, Korba. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/CUP+N+CAKE/data=!4m7!3m6!1s0x1302bb06bc7f0087:0xd4afc2ded9528603!8m2!3d36.5764084!4d10.8641633!16s%2Fg%2F11nn47sl9l!19sChIJhwB_vAa7AhMRA4ZS2d7Cr9Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Korba can you find the highly-rated café CUP N CAKE, known for its coffee and other delicious treats?</t>
+          <t>Day Plan:
+Morning: Explore the ancient bridge, **Ancien Pont De Korba**, for scenic views and local culture.
+Mid-Morning: Immerse yourself in the history and culture of the region at **ATPNE Korba**, a museum open 24 hours a day.
+Midday: Enjoy a delightful lunch of traditional Tunisian cuisine at **Street food el benna**, a highly-rated restaurant with friendly vibes.
+Afternoon: Relax and rejuvenate at the picturesque **Lac de Korba (Cite jerbi.Essabkha)**, offering ample space for recreation and serenity.
+Evening: Explore the flavors of Korba with dinner at **Restaurant Del Capo**, a pizzeria known for its delicious pizza and fast food options.
+Night: Unwind at **Cafe Arabesque. H**, a cozy and welcoming cafeteria open 24 hours for a relaxing end to the day.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1893,12 +2492,66 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>Located at 01 Avenue Habib Bourguiba in Korba, Restaurant Del Capo is a highly-rated pizzeria known for its delicious offerings. With a 4.1-star rating, this top-rated destination is the perfect spot for pizza lovers. Open 24 hours a day, they offer a wide range of categories to choose from, including Pizzeria and Restauration rapide. To get there, use these GPS coordinates: 36.564735255874, 10.854249540664. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Del+Capo/data=!4m7!3m6!1s0x1302bbfe32fee6cf:0xe9bae15cecc2152b!8m2!3d36.576104!4d10.8594375!16s%2Fg%2F11rc7s_8vl!19sChIJz-b-Mv67AhMRKxXC7Fzhuuk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 033 031.</t>
+          <t>Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizzeria in Korba that serves delicious pizza 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore KORBA and its historical landmarks.
+Mid-Morning: Try local cuisine at Restaurant PICCALILLI Korba or Nes Cute Korba.
+Midday: Enjoy the sun and sand at Plage de Korba.
+Afternoon: Visit ATPNE Korba museum to learn about the region's history and culture.
+Evening: Experience the lively atmosphere at Dio Scatenato.
+Night: Relax and rejuvenate at il Castello B&amp;B.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1996,12 +2649,72 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a delightful Indian dining experience, head to MUMBAI, located at HVG7+6WC MUMBAI. This top-rated restaurant boasts a 4.0 rating and is renowned for its authentic Indian cuisine. It offers a cozy and inviting ambiance, perfect for families and friends. To get there, use the GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them for reservations.</t>
+          <t>**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where in Korba can you find MUMBAI, a highly-rated Indian restaurant renowned for its authentic cuisine and welcoming atmosphere?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical and cultural significance of **KORBA** by visiting its prominent landmarks like **Ancien Pont De Korba** and **ATPNE Korba**.
+**Mid-Morning:**
+* Immerse yourself in the local flavors by trying traditional Tunisian dishes at **Street food el benna**.
+**Midday:**
+* Escape the hustle and bustle with a serene walk through the picturesque **Lac de Korba**.
+**Afternoon:**
+* Enjoy the warm sun and crystal-clear waters at **Plage de Korba**, indulge in swimming, sunbathing, or engaging in exciting water sports.
+**Evening:**
+* Head to **Cafe Arabesque. H** for a cozy and relaxed evening, savoring local beverages and snacks amidst a welcoming atmosphere.
+**Night:**
+* Experience the vibrant nightlife at **Dio Scatenato**, a popular bar known for its lively atmosphere and friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2820,67 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>In korba, Cafe IN is a great option for Cafe lovers. This top-rated destination has a rating of 4.8 and offers a range of Cafe categories to choose from. It's open during these hours: 07:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, call them at 20 662 225.</t>
+          <t>Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Korba, known for its diverse cafe menu options and extended hours of operation?</t>
+          <t>Day Plan:
+Morning: Exploring the picturesque Plage de Korba, enjoying the crystal-clear waters and soft white sand.
+Mid-Morning: Visiting the nearby ATPNE Korba museum, delving into the engaging exhibits and thought-provoking displays.
+Midday: Trying local cuisine at Restaurant Del Capo, savoring the authentic flavors of Korba's culinary traditions.
+Afternoon: Enjoying a relaxing stroll through Lac de Korba (Cite jerbi.Essabkha), immersing in the serene atmosphere and scenic beauty.
+Evening: Experiencing cultural immersion at Cafe Arabesque. H, indulging in local beverages and snacks while soaking up the vibrant ambiance.
+Night: Exploring the lively nightlife at Dio Scatenato, enjoying the great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2214,12 +2982,66 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Cafe experience, then Cafe Zico is definitely worth checking out. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: (36.6412521, 10.7603226). For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Zico/data=!4m7!3m6!1s0x1302bbb0c831c643:0xd961b412a15d530a!8m2!3d36.576751!4d10.8617244!16s%2Fg%2F11c70460m8!19sChIJQ8YxyLC7AhMRClNdoRK0Ydk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 97 240 009.</t>
+          <t>Cafe Zico is a popular cafe located in Korba, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is located in the heart of the city, making it a convenient spot to stop for a quick bite or to relax with friends.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can I find a highly-rated Cafe with GPS coordinates near Korba that offers a variety of Cafe and has a 4.5 rating?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba, a picturesque beach with crystal-clear waters and soft white sand, perfect for swimming and sunbathing.
+Mid-Morning: Visit Ancien Pont De Korba, a historic bridge offering scenic views and a glimpse into the local culture.
+Midday: Try local cuisine at Restaurant PICCALILLI Korba, a highly rated restaurant offering a delectable menu.
+Afternoon: Experience cultural immersion at ATPNE Korba, a museum showcasing the region's history and culture, open 24 hours a day.
+Evening: Enjoy a relaxing evening with a drink at Dio Scatenato, a highly-rated bar with a friendly atmosphere.
+Night: Engage in outdoor activities like stargazing or bonfire gathering at Lac de Korba (Cite jerbi.Essabkha), a serene park offering ample space for recreation and relaxation.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2321,12 +3143,73 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Cafe, check out Cafe Abattoir located at HVG7+W84 Cafe Abattoir. This popular destination has received a rating of 4.3 from 6 reviews. It's open 24 hours a day and closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/CafeBatwar/ or call them at [phone number not available].</t>
+          <t>**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Question: If you're in Korba searching for a highly acclaimed Cafe Abattoir, where can you find it and what sets it apart?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring the historic **Ancien Pont De Korba** for picturesque views.
+**Mid-Morning:**
+- Immerse in the cultural heritage at **ATPNE Korba**, a museum showcasing diverse exhibits.
+**Midday:**
+- Savor the local flavors of Tunisian cuisine at the highly-rated **Bella Artista** restaurant.
+**Afternoon:**
+- Enjoy a relaxing stroll along the scenic shores of **Plage de Korba** while admiring its crystal-clear waters.
+**Evening:**
+- Visit the majestic **il Castello B&amp;B**, a charming guest house, to unwind and recharge.
+**Night:**
+- Experience the vibrant atmosphere of **Dio Scatenato** for live music and refreshing beverages.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2428,12 +3311,67 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated cafe experience, Cafe El Ons is the place to visit. Located at HVF5+438 Cafe El Ons, Korba, this cafe offers a range of delicious options to choose from. With a rating of 4.2, it's a must-visit spot for cafe lovers. The cafe is open from 6 AM to midnight but closed on unspecified days. For more details, visit their website or call them at the provided phone number.</t>
+          <t>Cafe El Ons is a cafe located in HVF5+438, Korba with coordinates (36.5727472, 10.85762). The cafe is open from 6am to 12am and offers a variety of services including coffee, tea, and pastries.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where can you find a cafe in Korba with a high rating and an extensive menu, open from early morning until midnight?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage de Korba, known for its crystal-clear waters and soft white sand. Enjoy the serene ambiance and engage in water activities like swimming and sunbathing.
+Mid-Morning: Visit the Africa Jade Thalasso Hotel Korba, a luxurious beachfront resort with an outdoor pool, multiple restaurants and bars. Treat yourself to a relaxing spa treatment to rejuvenate and revitalize.
+Midday: Try local cuisine at Nes Cute Korba, a highly-rated fast food restaurant. Indulge in delicious and affordable meals while immersing yourself in the vibrant local atmosphere.
+Afternoon: Venture to VAPIANO, a casual dining spot in the heart of Korba. Watch as chefs prepare made-to-order pasta, savor delectable pizzas, and relish crisp salads, accompanied by refreshing beverages.
+Evening: Take a leisurely walk along the charming HVC4+9XJ in Korba, stopping by Cafe Arabesque. H, a cozy cafeteria offering a warm and inviting ambiance. Unwind with your favorite beverages and snacks as you soak in the local vibes.
+Night: Experience the lively atmosphere at Dio Scatenato, a bar known for its exceptional ambiance and friendly staff. Enjoy refreshing drinks and mingle with locals to conclude your exciting day in Korba.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2539,12 +3477,67 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a delicious meal, visit Fast food Abderrahmen located at HVH5+89P Fast food Abderrahmen, Korba. This top-rated destination is perfect for restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-15:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Fast+food+Abderrahmen/data=!4m7!3m6!1s0x1302bb716906bbaf:0x859c4b56b2c5d374!8m2!3d36.5783463!4d10.8584612!16s%2Fg%2F11j0nkt959!19sChIJr7sGaXG7AhMRdNPFslZLnIU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 607 935.</t>
+          <t>Fast food Abderrahmen is a restaurant located in Korba, India. It offers a variety of fast food options, including burgers, fries, and pizza. The restaurant is located at (22.3458, 82.69633), and is open from 06:30 to 15:00 every day. Fast food Abderrahmen has a 5.0 rating on Google, and is known for its delicious food and friendly service.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where is the highly-rated restaurant in Korba known for its exceptional dining experience?</t>
+          <t>Day Plan:
+Morning: Exploring the ATPNE Korba museum, known for its thought-provoking exhibits.
+Mid-Morning: Trying local cuisine at Restaurant Del Capo, a highly-rated pizzeria serving delicious pizzas and other fast food options.
+Midday: Engaging in outdoor activities like swimming, sunbathing, or enjoying water sports at Plage Korba, a popular beach destination with crystal-clear waters and soft white sand.
+Afternoon: Visiting Ancien Pont De Korba, a scenic bridge offering panoramic views of the city.
+Evening: Experiencing cultural immersion at Dio Scatenato, a traditional bar with a lively atmosphere and friendly staff.
+Night: Relaxing with a drink and enjoying the picturesque ambiance at Cafe Arabesque. H, a cozy and popular 24-hour cafeteria with a 5.0-star rating.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant PICCALILLI Korba is a highly rated restaurant located in Korba, Tunisia (36.6412521, 10.7603226). With a rating of 4.5 based on 2 reviews, this restaurant offers a great dining experience.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2634,12 +3627,67 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated cafe, check out C27 coffee located at HVJ7+VJ6 C27, Korba. This destination is perfect for Cafe lovers and has a rating of 5.0. For more details, visit their website at https://instagram.com/c27_coffee%3Figshid%3DNDRkN2NkYzU%3D</t>
+          <t>C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated cafe called C27 Coffee, known for its excellent ambiance and delicious offerings?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of **KORBA** and delve into the town's rich past.
+Mid-Morning: Visit the **ATPNE Korba** museum to discover its captivating exhibits and delve into the local culture.
+Midday: Indulge in authentic Tunisian cuisine at **Street food el benna** and savor the flavors of the region.
+Afternoon: Escape to the picturesque **Lac de Korba** for a tranquil stroll or rejuvenating picnic amidst the serene surroundings.
+Evening: Head to **Cafe Arabesque. H** for a leisurely coffee and bask in the cozy and welcoming ambiance.
+Night: Witness the vibrant atmosphere at **Dio Scatenato** and unwind with a refreshing drink while immersing yourself in the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2745,12 +3793,67 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Nes cute korba located at HVJ5+FRR Nes cute korba, Rue hedi chaker, Korba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 52 727 160.</t>
+          <t>Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a top-rated Restauration rapide destination with a 5.0 rating, open during specific hours?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the Plage de Korba, a picturesque beach renowned for its crystal-clear waters and pristine sand.
+**Mid-Morning:** Immerse in the local culture at ATPNE Korba, a state-of-the-art museum showcasing an array of exhibits, open 24/7 for your convenience.
+**Midday:** Savour the authentic flavours of Tunisian cuisine at Restaurant PICCALILLI Korba, a highly rated restaurant offering a delightful dining experience.
+**Afternoon:** Visit the Africa Jade Thalasso Hotel for a luxurious escape. Indulge in culinary delights at one of its five restaurants, relax by the outdoor pool, or explore the vibrant local culture.
+**Evening:** Experience the vibrant nightlife at Dio Scatenato, a bar known for its lively ambiance and friendly atmosphere.
+**Night:** Treat yourself to a restful retreat at il Castello B&amp;B, a charming guest house with an exceptional 4.3-star rating, ensuring a comfortable end to your day.</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant PICCALILLI Korba is a highly rated restaurant located in Korba, Tunisia (36.6412521, 10.7603226). With a rating of 4.5 based on 2 reviews, this restaurant offers a great dining experience.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2856,14 +3959,66 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a Restaurant de cendol, check out VAPIANO located at HVG7+9MC VAPIANO, Bd de l'Environnement, Korba. 
-This top-rated destination offers a range of Restaurant de cendol to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00. To get there, use these GPS coordinates: 36.575967388496, 10.865034363635. For more details, visit their website at https://www.google.com/maps/place/VAPIANO/data=!4m7!3m6!1s0x1302bb76cdcdcc4d:0x58aa4ea95ecdf203!8m2!3d36.5759378!4d10.8641445!16s%2Fg%2F11tctj5mq2!19sChIJTczNzXa7AhMRA_LNXqlOqlg?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated Restaurant de cendol with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage de Korba, taking in its crystal-clear waters and soft white sand.
+Mid-Morning: Visit the Fontaine de Korba, a popular spot for relaxation and rejuvenation.
+Midday: Enjoy a delightful lunch at Cafe Arabesque. H, known for its cozy ambiance and 5-star rating.
+Afternoon: Immerse yourself in the past and present at ATPNE Korba, a museum showcasing the history and culture of the region.
+Evening: Head to Street food el benna for an authentic Tunisian dinner experience.
+Night: Unwind with a refreshing drink and friendly atmosphere at Dio Scatenato, a bar with a perfect 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Bella Artista locates in Korba (Tunisia), at Bd de l'Environnement. With a 4.6 rating based on 16 reviews, it is one of the recommended restaurants in the zone. They are open from 7:30am to 1:30am. They have a website but the URL is not provided in the data.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2961,14 +4116,66 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out My Street Food located at My Street Food, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: -27.4913169, 153.0406282. For more details, visit their website at https://www.google.com/maps/place/My+Street+Food/data=!4m7!3m6!1s0x1302bb84161eb2ab:0xeb57055d298e0c44!8m2!3d36.5748619!4d10.8641567!16s%2Fg%2F11g20hfmrx!19sChIJq7IeFoS7AhMRRAyOKV0FV-s?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant destination offering a variety of options in Korba with exceptional ratings, making it a highly recommended spot?</t>
+          <t>Day Plan:
+Morning: Explore the Plage de Korba, offering crystal-clear waters and soft white sand for swimming, sunbathing, and beach activities.
+Mid-Morning: Visit the Fontaine de Korba, a popular fountain offering a refreshing respite and relaxation in the city.
+Midday: Try local cuisine at My Street Food, which offers various dishes and is known for its cozy ambiance and delicious food.
+Afternoon: Visit ATPNE Korba, a museum offering exhibits on the region's history and culture, providing a deeper understanding of the local heritage.
+Evening: Engage in outdoor activities at Lac de Korba (Cite jerbi.Essabkha), a picturesque park that provides ample space for recreation and relaxation.
+Night: Experience the lively atmosphere and friendly staff at Dio Scatenato, a bar known for its great drinks and a perfect place to unwind.</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3070,12 +4277,73 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Ezzedine Gabsi located at HVJ7+VJ6, C27. This highly-rated destination is perfect for restaurant lovers and offers a range of restaurant options to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Restaurant Ezzedine Gabsi is a highly-rated restaurant located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. It is renowned for offering a delightful dining experience and has received excellent reviews from its customers. The restaurant has a rating of 5.0 based on 3 reviews, indicating its popularity and the high level of satisfaction among its patrons. The restaurant specializes in Restaurant cuisine, providing a delectable menu that caters to diverse tastes.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>Where can you find Restaurant Ezzedine Gabsi, a highly-rated restaurant in Korba with a rating of 5.0?</t>
+          <t>Day Plan:
+Morning:
+- Explore the beautiful Korba beach and enjoy the soft white sand and crystal-clear waters.
+Mid-Morning:
+- Visit ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits, to delve into the region's heritage and culture.
+Midday:
+- Relish a delicious lunch at Restaurant El Baldi Chaouch, known for its authentic cuisine and 4.0 rating.
+Afternoon:
+- Immerse yourself in the local culture by exploring the lively streets of Korba, visiting the Fontaine de Korba for relaxation, or strolling through the bustling market for souvenir shopping.
+Evening:
+- Indulge in a serene and rejuvenating experience at VAPIANO, enjoying delectable pizzas and fresh pasta in a laid-back dining ambiance.
+Night:
+- Dance the night away at Dio Scatenato, a popular bar with a vibrant atmosphere and friendly staff, and enjoy the lively nightlife of Korba.</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3185,12 +4453,66 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Fresh Juice Bar(cafes , Jwejim and Crepes) located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes), Korba. This must-visit spot is perfect for restaurant and cafe des arts lovers. With a rating of 5.0, it's a place you don't want to miss. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their Facebook page at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) restaurant with excellent cafe des arts in Korba that operates from 6:00 AM to 11:30 PM?</t>
+          <t>Day Plan:
+Morning: Explore the Plage de Korba, Korba's picturesque beach, for swimming, sunbathing, and beach activities.
+Mid-Morning: Visit the ATPNE Korba Museum, open 24 hours a day, to immerse yourself in the history and culture of the region.
+Midday: Try local cuisine at MUMBAI, a well-rated Indian restaurant known for its diverse menu.
+Afternoon: Relax and unwind with a leisurely stroll through the Lac de Korba (Cite jerbi.Essabkha), a serene park offering ample space for recreation.
+Evening: Participate in a guided tour of the Ancien Pont De Korba, a historic bridge offering scenic views and insights into the local culture.
+Night: Visit Dio Scatenato, a popular bar with a great atmosphere and friendly staff, for a relaxing evening of drinks and socializing.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3296,16 +4618,67 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a delightful culinary experience, visit Cafe Arabesque. H, located at HVC4+9XJ. 
-This top-rated cafeteria offers a warm and inviting atmosphere, perfect for coffee lovers. 
-With a remarkable 5.0 rating, it's a must-visit spot for those seeking a satisfying caffeine fix.
-Cafe Arabesque. H is open 24 hours a day, providing ample time to savor its delectable offerings. 
-For further information, visit their website or call them at 26 382 063.</t>
+          <t>Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a top-rated cafe with a warm atmosphere, perfect for coffee lovers and open 24 hours a day?</t>
+          <t>Day Plan:
+Morning: Explore the Africa Jade Thalasso Hotel Korba, a luxurious beachfront resort with elegant accommodations and a beautiful beach.
+Mid-Morning: Try local cuisine at Restaurant Bel Horizon, known for its seafood dishes, wines, and cozy ambiance.
+Midday: Visit Plage de Korba, a popular beach with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+Afternoon: Take a guided tour of ATPNE Korba, a state-of-the-art museum showcasing a diverse range of exhibits.
+Evening: Enjoy a scenic stroll along Ancien Pont De Korba, a bridge situated in Korba, offering beautiful views and a popular spot for locals and tourists alike.
+Night: Relax with a drink at Dio Scatenato, a bar located in Korba, known for its great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant Bel Horizon is a highly rated restaurant located in korba (coordinates: 50.6903346, 4.6752439). The restaurant is known for its seafood dishes, wines and reasonable prices, as highlighted by customer reviews. Operating from 12:00-23:30, the restaurant boasts a cozy and welcoming ambiance, making it an ideal spot for a delightful dining experience.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3403,12 +4776,73 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant PICCALILLI Korba located at HVC5+WH3 Restaurant PICCALILLI Korba, nhH mHmd byrm ltwnsy, Korba 8070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Restaurant+PICCALILLI+Korba/data=!4m7!3m6!1s0x1302bb6dd1e8c23d:0xb507186df740334e!8m2!3d36.572264!4d10.8589326!16s%2Fg%2F11fvxlcf3l!19sChIJPcLo0W27AhMRTjNA920YB7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>What is the top-rated Restaurant destination with a rating of 4.5 located at the coordinates HVC5+WH3 Restaurant PICCALILLI Korba, nhH mHmd byrm ltwnsy, Korba 8070?</t>
+          <t>Day Plan:
+Morning:
+- Explore the scenic views at Plage de Korba, offering crystal-clear waters and soft white sand.
+Mid-Morning:
+- Visit ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits, and immerse yourself in its engaging atmosphere.
+Midday:
+- Try local cuisine at Cafe IN, known for its cozy ambiance and delicious offerings.
+Afternoon:
+- Relax at VAPIANO, savoring made-to-order fresh pasta, delectable pizzas, and crisp salads in a laid-back dining experience.
+Evening:
+- Explore the cultural heritage of Korba by visiting its historical sites and landmarks.
+Night:
+- Unwind and enjoy the lively ambiance at Dio Scatenato, known for its great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba, is a highly-rated cafe known for its cozy ambiance and delicious offerings. It opens daily from 7 AM to 11:30 PM, offering a convenient spot for locals and visitors alike. With a 4.8-star rating based on 6 reviews, Cafe IN is a popular destination for those seeking a great cup of coffee or a quick bite.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3514,12 +4948,66 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out First One located at HVG6+CWR First One, Bd de l'Environnement, Korba. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 15:00-23:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 24 794 709.</t>
+          <t>First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated Pizzeria destination with a rating of 4.0?</t>
+          <t>Day Plan:
+Morning: Exploring the historical **Ancien Pont De Korba** bridge.
+Mid-Morning: Trying local cuisine at **MUMBAI**, an Indian restaurant offering a variety of traditional dishes.
+Midday: Relaxing with a drink and soaking up the atmosphere at **Dio Scatenato**, a popular bar known for its friendly staff.
+Afternoon: Visiting **ATPNE Korba** museum to learn about the history and culture of the region.
+Evening: Enjoying a delightful dinner at **VAPIANO**, a casual restaurant offering freshly made pasta, pizzas, and salads.
+Night: Taking a peaceful stroll through **Lac de Korba**, a beautiful park perfect for a leisurely evening walk.</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Fresh Juice Bar, located in Korba (lon: 82.69633, lat: 22.3458), is a popular spot for cafes, Jwejim, and sweet crepes. Open daily from 6:00 AM to 11:30 PM, the establishment has received rave reviews from customers and holds a 5.0 rating. Notable for its artistic cafe ambiance, Fresh Juice Bar is easily accessible and conveniently located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes).
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3625,12 +5113,67 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for somewhere to grab a coffee or a bite to eat, check out Cafe KING located at Av. H. Bourguiba, Korba 8070. This top-rated spot is perfect for Cafe lovers and offers a range of categories to choose from. Rated 5.0, it's a must-visit place. It's open 24 hours a day, and you can call them at 50 462 588 for more information.</t>
+          <t>Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where is the top-rated cafe with a 5.0 rating and a wide range of categories in Korba, perfect for coffee and dining, open 24/7?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of KORBA, Tunisia.
+Mid-Morning: Try the local cuisine at "*Fresh Juice Bar*" for a variety of drink options and local delicacies.
+Midday: Visit the "ATPNE Korba" museum for its thought-provoking exhibits and engaging atmosphere.
+Afternoon: Enjoy the warm Mediterranean waters and soft white sand at Plage de Korba, perfect for swimming and sunbathing.
+Evening: Head to "Restaurant El Baldi Chaouch" for a taste of traditional Tunisian cuisine.
+Night: Experience the vibrant nightlife at "Dio Scatenato", known for its cozy atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3736,14 +5279,72 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cozy Cafe, check out Echbilya Cafe located at HVJ5+H9F Echbilya Cafe, rue ahmed kbabou. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:30-22:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website or call them at 50 722 665.</t>
+          <t>Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>If you're in Korba and seeking a well-rated Cafe with a cozy ambiance, where can you find Echbilya Cafe with its top-rated selection of Cafe options?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Explore the history and culture of Korba at ATPNE Korba:** Dive into the region's heritage through exhibits and displays.
+**Mid-Morning:**
+* **Visit the picturesque Plage de Korba:** Bask in the sun, swim in the refreshing waters, and enjoy a relaxing beach experience.
+**Midday:**
+* **Lunch at Bella Artista:** Indulge in a delectable culinary experience with high-rated cuisine.
+**Afternoon:**
+* **Explore the culinary delights of Korba:** Visit Nes cute korba for a fast-food treat or Street food el benna for authentic Tunisian cuisine.
+**Evening:**
+* **Relax at Lac de Korba:** Escape the city hustle at this serene park, offering ample space for recreation and relaxation.
+**Night:**
+* **Unwind at Dio Scatenato:** Experience the lively atmosphere and friendly service at this popular bar, perfect for a nightcap and relaxation.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3849,12 +5450,66 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great place to relax, check out Bistrot badra hawari located at Bistrot badra hawari, Korba route de Tunis henchiir ayed, 8070. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Bistrot+badra+hawari/data=!4m7!3m6!1s0x1302bb36b4f0264d:0x5de28669d83bceb5!8m2!3d36.5791816!4d10.8304884!16s%2Fg%2F11p65nf8q5!19sChIJTSbwtDa7AhMRtc472GmG4l0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 29 353 657.</t>
+          <t>Bistrot badra hawari is a cafe located in Korba, Tunisia at (36.6412521, 10.7603226). It has a rating of 5.0 and is open 24 hours a day.</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Cafe with a 5.0 rating in Korba that is perfect for relaxation?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage de Korba, enjoying the tranquil atmosphere and engaging in sunbathing or swimming.
+Mid-Morning: Immerse in the local culture and history at ATPNE Korba, a museum showcasing regional exhibits.
+Midday: Savor authentic Tunisian cuisine at Street food el benna, a highly-rated restaurant offering a diverse menu of traditional dishes.
+Afternoon: Participate in outdoor activities at Lac de Korba, a serene park perfect for recreation and relaxation.
+Evening: Indulge in the vibrant ambiance of Dio Scatenato, a bar renowned for its inviting atmosphere and friendly staff.
+Night: Experience the local nightlife at VAPIANO, a casual restaurant offering a menu featuring freshly made pasta and pizzas.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3956,12 +5611,67 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great meal, check out W.Food located at W.Food, 8070, Korba 8070. This top-rated destination is perfect for restaurant lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, call them at 90 385 392.</t>
+          <t>W.Food is a restaurant located in Korba, Tunisia. It offers a variety of dishes and is rated 5.0 stars by its customers. You can reach the restaurant by phone at 90 385 392.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated dining establishment (rated 5.0) called W.Food in Korba that's easily accessible with GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Start the day with a local breakfast at Waffle Cap, known for its wide variety of breakfast options and beverages. (7:30 AM - 4:00 AM)
+Mid-Morning: Explore the Africa Jade Thalasso Hotel, a luxurious retreat with five restaurants offering culinary delights and refreshing drinks. (9:00 AM - 11:00 AM)
+Midday: Indulge in traditional Tunisian cuisine at Street food el benna, known for its friendly atmosphere and authentic dishes. (11:00 AM - 3:00 PM)
+Afternoon: Enjoy scenic views and immerse yourself in the local culture at Plage de Korba, a picturesque beach with crystal-clear waters and soft white sand. (3:00 PM - 6:00 PM)
+Evening: Take a guided tour of ATPNE Korba, a state-of-the-art museum showcasing a diverse range of exhibits. (6:00 PM - 8:00 PM)
+Night: Experience the vibrant atmosphere and relax with a drink at Dio Scatenato, a bar known for its friendly staff and lively ambiance. (8:00 PM - 10:00 PM)</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4055,12 +5765,66 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for an authentic Indian dining experience, Naan house located at HVG7+CX5 Naan house, rue de l'environnement, Korba 8070 is the perfect spot. This top-rated destination with a rating of 5.0 is a must-visit for Indian food lovers. For more details, visit their website at https://www.google.com/maps/place/Naan+house/data=!4m7!3m6!1s0x1302bb35f6702da1:0xeeea937915f49803!8m2!3d36.5760204!4d10.8649794!16s%2Fg%2F11tc195xn1!19sChIJoS1w9jW7AhMRA5j0FXmT6u4?authuser=0&amp;hl=fr&amp;rclk=1 or you can coordinate with place owner's representative called Naan house (proprietaire) for any further details.</t>
+          <t>Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated (5.0) authentic Indian dining experience with an excellent reputation in Korba, as recommended by the description?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Zico for its cozy atmosphere and delicious coffee and pastries.
+Mid-Morning: Visit Africa Jade Hotel to enjoy stunning views of the Mediterranean Sea from its beachfront location.
+Midday: Try local cuisine at Restaurant Ezzedine Gabsi, a highly-rated restaurant with a focus on a specific cuisine.
+Afternoon: Relax and enjoy scenic views at Plage de Korba, a popular beach with crystal-clear waters and soft white sand.
+Evening: Engage in cultural immersion at ATPNE Korba, a museum that offers exhibits on the history and culture of the region.
+Night: Experience the great atmosphere and friendly staff at Dio Scatenato, a bar with a 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a popular cafe located in Korba, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is located in the heart of the city, making it a convenient spot to stop for a quick bite or to relax with friends.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Ezzedine Gabsi, located in Korba (coordinates: 22.3458, 82.69633), is a highly-rated (5.0 stars out of 3 reviews) restaurant. With a focus on a specific cuisine, this eatery is open every day from 10:00-00:00, offering a delectable dining experience.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4170,15 +5934,66 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a place to stay, check out Africa Jade Thalasso Hotel Korba located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from, including Hotel, Complexe hotelier, Restaurant, Piscine, Centre de bien-etre. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website 
-at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>What is the highly-rated hotel located on Avenue Habib Bourguiba in Korba that offers a range of categories including Hotel and Restaurant?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the historic **Ancien Pont De Korba** bridge, offering scenic views of the surrounding area.
+Mid-Morning: Indulge in the local cuisine at **Restaurant Gadour**, renowned for its excellent service and delicious Tunisian dishes.
+Midday: Visit the **ATPNE Korba** museum to delve into the region's fascinating history and culture.
+Afternoon: Enjoy a relaxing afternoon at **Lac de Korba**, a picturesque park where you can take a leisurely stroll or have a picnic amidst tranquil surroundings.
+Evening: Head to **VAPIANO** for a delightful dinner featuring freshly made pasta, pizzas, and salads, all prepared to order.
+Night: End the day with a refreshing drink at the highly-rated **Cafe Arabesque. H**, a cozy and welcoming spot to unwind and soak up the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Gadour is a highly-rated restaurant located in Korba. Situated at the coordinates (22.3458, 82.69633), it is renowned for its excellent service, as evidenced by its 4.6 rating based on 5 reviews. Though its website and phone number are not provided in the given information, its prominent features and positive feedback from patrons make it a desirable dining destination in the area.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4284,14 +6099,66 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cozy place to stay, check out il Castello B&amp;B located at route kelibia km 2. 
-This top-rated destination is perfect for Chambre d'hotes lovers. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 39.9815728, 16.6160273. For more details, visit their website at http://www.il-castello-bb-korba.vivehotels.com/ or call them at 55 408 558.</t>
+          <t>il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Chambre d'hotes with a cozy ambiance and easy access in Korba?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmark of **Ancien Pont De Korba**.
+Mid-Morning: Visit the **ATPNE Korba** museum to learn about the region's history and culture.
+Midday: Indulge in local cuisine at the highly-rated pizzeria **Restaurant Del Capo**.
+Afternoon: Unwind at the scenic **Fontaine de Korba** and relax amidst its refreshing ambiance.
+Evening: Enjoy a stroll along **Plage Korba**, taking in the picturesque beachfront and engaging in beach activities.
+Night: Experience the lively atmosphere and great food at the **Dio Scatenato** bar.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+W.Food is a restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It has a 5.0 rating based on one review and is owned by W.Food (proprietaire).
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4393,12 +6260,66 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>Looking for a comfortable stay in Korba? Check out Residence Machmoucha, located on Bd de l'Environnement, HVF9+V2H. This top-rated hébergement d'intérieur has a 5.0 rating, making it a must-visit. Contact them at 98 454 953 for more details.</t>
+          <t>Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>Where in Korba can you find Residence Machmoucha, a highly-rated hébergement d'intérieur known for its prime location and exceptional amenities?</t>
+          <t>Day Plan:
+Morning: Visit Fontaine de Korba, a popular fountain offering a refreshing break.
+Mid-Morning: Explore the exhibits on the history and culture of the region at ATPNE Korba, open 24 hours a day.
+Midday: Enjoy a delicious meal of traditional Tunisian dishes at Street food el benna, known for its friendly ambiance.
+Afternoon: Relax and enjoy the picturesque views at Plage de Korba, a beautiful beach with crystal-clear waters.
+Evening: Head to Restaurant Bel Horizon, appreciated for its seafood, wine selection, and reasonable prices.
+Night: Experience the vibrant atmosphere and friendly staff at Dio Scatenato, a bar with a 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4504,12 +6425,66 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Chambre d'hotes, check out il Castello B&amp;B at route kelibia km 2, Korba 8070. This &lt;span class="primary"&gt;4.3&lt;/span&gt;-rated destination offers a range of categories to choose from. To get there, use these GPS coordinates: 39.9815728, 16.6160273. For more details, visit their website at http://www.il-castello-bb-korba.vivehotels.com/ or call them at 55 408 558.</t>
+          <t>"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>What is the GPS location of the top-rated 4.3-rated Chambre d'hotes in Korba offering various categories and located at route kelibia km 2?</t>
+          <t>Day Plan:
+Morning: Explore "Il Castello B&amp;B" for its charming ambiance and comfortable accommodations.
+Mid-Morning: Visit "Korba (Tunisia)" for its beach and business management consulting services.
+Midday: Try local cuisine at "Restaurant El Baldi Chaouch," known for its delicious poultry dishes.
+Afternoon: Enjoy recreational activities at "Plage de Korba" for swimming, sunbathing, and beach activities.
+Evening: Engage in cultural immersion at "ATPNE Korba," a museum offering insights into the region's history and culture.
+Night: Relax with a warm ambiance and delectable food at "Nes Cute Korba," a highly-rated fast food restaurant.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe El Ons is a cafe located in HVF5+438, Korba with coordinates (36.5727472, 10.85762). The cafe is open from 6am to 12am and offers a variety of services including coffee, tea, and pastries.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4619,12 +6594,66 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a luxurious accommodation, consider Africa Jade Thalasso Hotel Korba at Avenue Habib Bourguiba. This top-rated hotel is perfect for relaxation seekers and offers a range of amenities like a private beach, 5 restaurants, and a spa. With a rating of 4.0, it's a must-visit spot for travelers. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633.</t>
+          <t>The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>If you are seeking a luxurious oasis in the heart of Korba, with serene amenities such as a private beach and a rejuvenating spa, which highly-rated hotel awaits you with a GPS location of 36.6412521, 10.7603226?</t>
+          <t>Day Plan:
+Morning: Explore the historic ATPNE Korba museum
+Mid-Morning: Try local cuisine at My Street Food for a delightful dining experience
+Midday: Visit the enchanting Lac de Korba for a serene picnic
+Afternoon: Enjoy scenic views at the Plage de Korba, perfect for sunbathing and swimming
+Evening: Immerse yourself in the local culture at Ancien Pont De Korba, offering picturesque views
+Night: Relax with a refreshing drink at Dio Scatenato, known for its lively atmosphere and friendly staff</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4722,12 +6751,67 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage de Korba shTy' qrb@ located at Plage de Korba shTy' qrb@, Korba. This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395. For more details, visit their website at https://www.google.com/maps/place/Plage+de+Korba+%D8%B4%D8%A7%D8%B7%D8%A6+%D9%82%D8%B1%D8%A8%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x1302bbc7e7902705:0x72037413c08cc93e!8m2!3d36.5740761!4d10.8690923!16s%2Fg%2F11g8t_4f4c!19sChIJBSeQ58e7AhMRPsmMwBN0A3I?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a top-rated destination with a variety of Plage options, earning a 4.4 rating?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage de Korba, known for its crystal-clear waters and soft white sand. Enjoy swimming, sunbathing, or simply soak up the picturesque views.
+Mid-Morning: Visit the fascinating ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits. Engage with thought-provoking displays and delve into the rich cultural heritage of the region.
+Midday: Try local cuisine at the highly-rated restaurant Bella Artista. Indulge in authentic Tunisian flavors and savor the delectable dishes prepared with fresh ingredients.
+Afternoon: Immerse yourself in the local culture at the Ancien Pont De Korba. Admire the scenic views from the bridge and interact with locals to gain insights into their way of life.
+Evening: Experience the vibrant atmosphere at Dio Scatenato, a popular bar known for its lively ambiance and friendly staff. Relax with a refreshing drink and engage in lively conversations with fellow travelers.
+Night: Relish a traditional Tunisian dinner at Street food el benna. Delight in the aromatic flavors of freshly prepared dishes and enjoy the warm hospitality extended by the locals.</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Bateau is a cafe in Korba, Tunisia. It's located at the coordinates (36.5796342, 10.8706392) and has a rating of 3.6 out of 5 based on 57 reviews. The cafe is open from 8:00 AM to 12:00 AM every day and is known for its beautiful view.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4837,12 +6921,73 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a cafe, check out Le Bateau located at HVHC+P97 Le Bateau, Korba. This top-rated destination is perfect for Cafe lovers. With a rating of 3.6, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 36.5796342, 10.8706392. For more details, visit their website at https://www.facebook.com/Korba-Bateau-289967668003925/ or call them at 20 209 070.</t>
+          <t>Le Bateau is a cafe in Korba, Tunisia. It's located at the coordinates (36.5796342, 10.8706392) and has a rating of 3.6 out of 5 based on 57 reviews. The cafe is open from 8:00 AM to 12:00 AM every day and is known for its beautiful view.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>In the heart of Korba, where do you find a top-rated cafe, Le Bateau, known for its excellent ambiance and delectable menu?</t>
+          <t>Day Plan:
+Morning:
+- Explore the historic ruins of **Ancien Pont De Korba**, offering scenic views and local cultural immersion.
+Mid-Morning:
+- Visit the **ATPNE Korba** museum to engage in thought-provoking exhibits and artistic displays.
+Midday:
+- Enjoy a traditional Tunisian lunch at **My Street Food**, savoring delicious local cuisine and experiencing the warm hospitality.
+Afternoon:
+- Relax and unwind with a serene stroll through **Lac de Korba (Cite jerbi.Essabkha)**, immersing yourself in picturesque park landscapes.
+Evening:
+- Explore the vibrant **Cafe du Lac**, a popular local spot known for its cozy ambiance and delectable coffee.
+Night:
+- Indulge in a memorable dining experience at **Amigos**, savoring a wide variety of pizzas and enjoying the lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4952,12 +7097,67 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're in korba and searching for a top-rated Conseiller en gestion des affaires, check out KORBA,Tunisia  at rue sadek toumi, 26/2. This popular place has earned a rating of 4.2, making it a must-visit destination. It's open from 08:00-18:00 during weekdays. For more information, visit their website at http://tgplines.wix.com/wikilines-tunisia or call at 99 997 602.</t>
+          <t>KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Conseiller en gestion des affaires with a 4.2 rating in Korba, Tunisia?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful Plage de Korba, a beach known for its picturesque beachfront and pristine waters.
+Mid-Morning: Trying local cuisine at Restaurant Bel Horizon, an appreciated restaurant praised for its seafood and reasonable prices.
+Midday: Visiting the Africa Jade Thalasso Hotel Korba, a luxurious beachfront resort with elegant accommodations, an outdoor pool, and multiple restaurants.
+Afternoon: Relaxing with a spa treatment at Residence Machmoucha, a cozy accommodation offering a comfortable and convenient stay.
+Evening: Exploring the local market, searching for unique souvenirs and local products.
+Night: Enjoying a relaxing evening at Cafe Zico, a cozy cafe with a prime location, inviting ambiance, and delicious coffee.</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5063,12 +7263,66 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a trusted business advisor, consider KORBA,Tunisia located at HVJ6+7VJ KORBA,Tunisia, NABEUL, Korba 8070. This top-rated destination is perfect for those seeking guidance in business management. With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 36.57861, 10.85861. For more details, visit their website or call them at 54 386 225.</t>
+          <t>**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where can you seek guidance from a reputable business advisor in Korba, Tunisia, that consistently receives high ratings for its services?</t>
+          <t>Day Plan:
+Morning: Exploring Plage de Korba for its beautiful beachfront, crystal-clear waters, and soft white sand.
+Mid-Morning: Trying local cuisine at Restaurant Bel Horizon, known for its seafood, wine selection, and reasonable prices.
+Midday: Visiting Ancien Pont De Korba, a bridge offering scenic views and a glimpse into the local culture.
+Afternoon: Relaxing with a rejuvenating spa treatment at il Castello B&amp;B, a guest house with a charming exterior and top-rated service.
+Evening: Enjoying a laid-back dinner with freshly made pasta at VAPIANO, a casual restaurant with a cozy ambiance.
+Night: Experiencing the lively atmosphere of Dio Scatenato, a bar with a 5.0 rating, great vibes, and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5166,12 +7420,67 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage korba located at HV98+WQR Plage korba, Korba. This top-rated destination is perfect for Attraction touristique lovers. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395. For more details, visit their website at https://www.google.com/maps/place/Plage+korba/data=!4m7!3m6!1s0x1302bb27ab134d87:0x54ea8d3d755b06!8m2!3d36.5698656!4d10.866883!16s%2Fg%2F11v5b9cb5s!19sChIJh00Tqye7AhMRBlt1PY3qVAA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>What top-rated Attraction touristique can be found in Korba at the GPS coordinates 36.5723699, 10.8675395?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historic streets of **Ancien Pont De Korba**, taking in its charming architecture and scenic views.
+**Mid-Morning:** Visit the **ATPNE Korba** museum to delve into its fascinating exhibits and immerse yourself in local culture.
+**Midday:** Savory lunch at **Restaurant El Baldi Chaouch**, known for its delectable poultry dishes.
+**Afternoon:** Unwind at the serene **Lac de Korba (Cite jerbi.Essabkha)**, indulging in leisurely strolls or relaxing amidst nature.
+**Evening:** Stroll along the picturesque **Plage Korba** beach, relishing the tranquil atmosphere and the vibrant sunset hues.
+**Night:** Experience traditional Tunisian cuisine at **Restaurant Baraka**, a highly-rated establishment offering a delightful culinary journey.</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant Baraka is a restaurant located in Korba, Algeria. It has a rating of 5.0 based on 1 review. The restaurant's coordinates are (36.7249519, 3.0806435).
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5269,12 +7578,67 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Ancien Pont De Korba located at HVF5+F6G Ancien Pont De Korba, Korba. This top-rated destination is perfect for Sn` shwhd qbwr lovers. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ancien+Pont+De+Korba/@36.573683,10.8580835,17z/data=!3m1!4b1!4m6!3m5!1s0x1302bbbae890e9ef:0x9e326cfbff93a249!8m2!3d36.573683!4d10.8580835!16s%2Fg%2F11dzss63t1?authuser=0&amp;entry=ttu or call them at nan.</t>
+          <t>**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated destination in Korba that's perfect for Sn` shwhd qbwr lovers?</t>
+          <t>**Day Plan:**
+**Morning:** Explore the historical significance of Korba at '**Ancien Pont De Korba**'.
+**Mid-Morning:** Immerse yourself in local culture at the state-of-the-art **ATPNE Korba** museum.
+**Midday:** Savor traditional Tunisian cuisine at the highly-rated **Street food el benna**.
+**Afternoon:** Relax and enjoy the natural beauty of **Lac de Korba (Cite jerbi.Essabkha**) park.
+**Evening:** Capture the breathtaking views at the beachfront **Plage de Korba** while enjoying a leisurely stroll.
+**Night:** Indulge in a delightful dinner at the well-rated **Restaurant El Baldi Chaouch**.</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5376,12 +7740,68 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a remarkable museum to visit, head to ATPNE Korba located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba. This top-rated museum is open 24 hours a day, making it an excellent destination for museum lovers. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633. For further details, you can call them at 25 351 108.</t>
+          <t>**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>What is the name and location of the 24-hour museum in Korba with a 4.2 rating?</t>
+          <t>Day Plan:
+Morning: Explore the ATPNE Korba museum, showcasing a diverse range of exhibits.
+Mid-Morning: Visit the charming Plage de Korba, offering stunning beachfront views and water activities.
+Midday: Indulge in local cuisine at Restaurant El Baldi Chaouch, specializing in poultry dishes.
+Afternoon: Discover the historic Ancien Pont De Korba, providing scenic views and a glimpse of local culture.
+Evening: Relax and enjoy the cozy ambiance of Cafe Arabesque. H, a 24-hour cafeteria with a 5.0-star rating.
+Night: Experience the lively atmosphere at Dio Scatenato, a bar known for its friendly staff and great ambiance.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a popular cafe located in Korba, Tunisia. It is known for its cozy atmosphere and delicious coffee and pastries. The cafe is located in the heart of the city, making it a convenient spot to stop for a quick bite or to relax with friends.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5483,15 +7903,66 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in korba, check out ATPNE Korba at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba. 
-This top-rated museum is a must-visit spot with a rating of 4.2. It's open 24/7 and offers a range of museum-related activities to choose from. 
-However, it's closed on [Closed days are not provided]. 
-For more details, visit their website or call them at 25 351 108.</t>
+          <t>**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where can you visit a top-rated museum with a variety of activities in Korba?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Zico for a highly-rated coffee experience.
+Mid-Morning: Visit ATPNE Korba, a museum showcasing the region's history and culture.
+Midday: Try local cuisine at Restaurant Le Bongout, known for its open-air seating and friendly service.
+Afternoon: Relax with a refreshing swim at Plage de Korba, enjoying its crystal-clear waters and soft white sand.
+Evening: Visit "Il Castello B&amp;B" for a charming dinner, savoring its comfortable ambiance and attentive service.
+Night: Experience Dio Scatenato's vibrant atmosphere and friendly staff, enjoying a refreshing drink and local entertainment.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a highly-rated cafe located in Rue de la Liberte, Korba, Tunisia. It has received an average rating of 4.5 out of 5, based on 6 reviews. Unfortunately, no additional information regarding its description, featured image, website, or opening hours is available.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Discover Restaurant Le Bongout, a great place in Korba offering Restaurant services. Enjoy the great outdoors with the open-air seating and let the friendly staff help you with your needs. Call them ahead at to inquire about their hours.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5593,10 +8064,68 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Fontaine de Korba located at HVF5+44X Fontaine de Korba, Korba. This top-rated destination is perfect for Fontaine lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 58.974910773791, 25.611545697605. For more details, visit their website at https://www.google.com/maps/place/Fontaine+de+Korba/data=!4m7!3m6!1s0x1302bbbb1f87df03:0x9ffe142776e3247!8m2!3d36.5728628!4d10.857853!16s%2Fg%2F1ptvzhks3!19sChIJA9-HH7u7AhMRRzJud0Lh_wk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr"/>
+          <t>Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring Plage de Korba or Plage Korba
+Mid-Morning: Trying local cuisine at Cafe Zico or Fresh Juice Bar
+Midday: Visiting ATPNE Korba to learn about the local culture
+Afternoon: Relaxing with a spa treatment at Residence Machmoucha or "Il Castello B&amp;B"
+Evening: Enjoying a traditional Tunisian meal at Street food el benna or Restaurant El Baldi Chaouch
+Night: Experiencing the lively atmosphere at Dio Scatenato</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -5692,14 +8221,67 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Lac de Korba (Cite jerbi.Essabkha) located at HVVF+6PH Lac de Korba (Cite jerbi.Essabkha), Korba. 
-This top-rated destination is perfect for Parc lovers and offers a range of Parc to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>Which destination located in Korba with the GPS coordinates 22.3458, 82.69633, offers a wide selection of Parc activities and boasts a highly rated 4.0 rating for Parc lovers?</t>
+          <t>Day Plan:
+Morning: Explore the Africa Jade Thalasso Hotel for its luxurious amenities.
+Mid-Morning: Try local cuisine at My Street Food for a cozy dining experience.
+Midday: Visit the ATPNE Korba museum for its thought-provoking exhibits.
+Afternoon: Relax at the Plage de Korba beach for swimming and sunbathing.
+Evening: Enjoy dinner at VAPIANO for freshly made pasta and a laid-back ambiance.
+Night: Experience the lively atmosphere at Dio Scatenato bar.</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba, is a highly-rated cafe known for its cozy ambiance and delicious offerings. It opens daily from 7 AM to 11:30 PM, offering a convenient spot for locals and visitors alike. With a 4.8-star rating based on 6 reviews, Cafe IN is a popular destination for those seeking a great cup of coffee or a quick bite.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5797,12 +8379,67 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Plage de Korba, Korba. This top-rated spot is perfect for Plage lovers. With a rating of 4.4 out of 83 reviews, it's a must-visit spot. To get there, use these GPS coordinates: 36.5723699, 10.8675395.</t>
+          <t>Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where is the top-rated Plage lovers' destination in Korba, and what makes it stand out?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Korba (Cite jerbi.Essabkha) for a serene escape.
+Mid-Morning: Visit ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits.
+Midday: Try local cuisine at Nes Cute Korba, known for its delicious fast food.
+Afternoon: Enjoy recreational activities at Plage Korba, a popular beach with crystal-clear waters and soft sand.
+Evening: Relax with a cozy ambiance and freshly prepared pasta at VAPIANO.
+Night: Immerse yourself in cultural vibes at "**Ancien Pont De Korba**", a picturesque spot for locals and tourists.</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5912,14 +8549,66 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out KORBA,Tunisia located at rue sadek toumi, 26/2. 
-This top-rated destination is perfect for Conseiller en gestion des affaires lovers and offers a range of Conseiller en gestion des affaires to choose from. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-18:00. To get there, use these GPS coordinates: 36.574846845183, 10.867309122048. For more details, visit their website at http://tgplines.wix.com/wikilines-tunisia or call them at 99 997 602.</t>
+          <t>This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated destination for Conseiller en gestion des affaires lovers located in Korba, Tunisia with a 4.2 rating and operating hours from 08:00-18:00?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Plage de Korba, bask in the sun, and indulge in swimming and beach activities.
+Mid-Morning: Visit the intriguing ATPNE Korba museum to delve into the region's rich history and culture.
+Midday: Satisfy your taste buds with a delightful lunch at Naan House, savoring authentic Indian cuisine in a cozy ambiance.
+Afternoon: Experience the tranquility of Parc Lac de Korba, perfect for relaxation and immersing yourself in nature's beauty.
+Evening: Head to VAPIANO for an exceptional dining experience, where you can relish made-to-order fresh pasta, delectable pizzas, and crisp salads.
+Night: Immerse yourself in the vibrant nightlife of Korba by visiting Dio Scatenato bar, known for its fantastic atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Bella Artista locates in Korba (Tunisia), at Bd de l'Environnement. With a 4.6 rating based on 16 reviews, it is one of the recommended restaurants in the zone. They are open from 7:30am to 1:30am. They have a website but the URL is not provided in the data.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6029,12 +8718,66 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated Restaurant, check out Restaurant Bel Horizon located at HV73+65H Restaurant Bel Horizon, C27, Korba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 12:00-23:30. To get there, use these GPS coordinates: 50.6903346, 4.6752439. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>If you're seeking an exceptional dining experience in Korba, which highly-rated restaurant, known for its delectable cuisine, awaits your visit?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Lac de Korba for a serene start to the day.
+Mid-Morning: Visit ATPNE Korba, a museum showcasing the region's rich history and culture.
+Midday: Savor authentic Tunisian flavors at Restaurant Del Capo, known for its delicious pizzas and fast food options.
+Afternoon: Engage in water sports or simply relax on the pristine sands of Plage de Korba.
+Evening: Take a guided tour of Ancien Pont De Korba for scenic views and a glimpse of local culture.
+Night: Experience the vibrant nightlife at Dio Scatenato, a popular bar with a lively atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Discover Restaurant Le Bongout, a great place in Korba offering Restaurant services. Enjoy the great outdoors with the open-air seating and let the friendly staff help you with your needs. Call them ahead at to inquire about their hours.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6140,12 +8883,67 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a reliable Conseiller en gestion des affaires, check out KORBA,Tunisia located at HVJ6+7VJ KORBA,Tunisia, NABEUL, Korba 8070. This top-rated destination with a rating of 4.1 is perfect for Conseiller en gestion des affaires lovers. It's open 24h/24. To get there, use these GPS coordinates: 36.57861, 10.85861. For more details, visit their website at or call them at 54 386 225.</t>
+          <t>KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>Question: Where can you find a highly recommended Conseiller en gestion des affaires that operates 24 hours a day in the Korba region of Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Lac de Korba (Cite jerbi.Essabkha), enjoying the serene ambiance and indulging in recreational activities.
+Mid-Morning: Head to Cafe Marina for a delightful breakfast and savor the local cuisine while enjoying the lively atmosphere.
+Midday: Visit the historic Ancien Pont De Korba, capturing scenic views and immersing yourself in the local culture.
+Afternoon: Take a refreshing dip at Plage Korba, soaking up the sun, swimming, or engaging in beach activities.
+Evening: Shop for local souvenirs and goods at the bustling Korba Market, experiencing the vibrant energy of the city.
+Night: Relish a traditional Tunisian dinner at Street food el benna, savoring authentic flavors and enjoying the friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6247,12 +9045,67 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great cafe, check out Cafe Zico. This top-rated destination is perfect for coffee lovers. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website or call them at 97 240 009.</t>
+          <t>Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Question: Which highly rated cafe in Korba is a must-visit for coffee aficionados?</t>
+          <t>Day Plan:
+Morning: Exploring the coastal beauty of Plage de Korba
+Mid-Morning: Trying local cuisine at Restaurant Del Capo
+Midday: Visiting the historical Ancien Pont De Korba
+Afternoon: Relaxing with a swim at the outdoor pool of Africa Jade Thalasso Hotel
+Evening: Enjoying scenic views at Lac de Korba (Cite jerbi.Essabkha)
+Night: Experiencing cultural immersion at ATPNE Korba</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a highly-rated cafe located in Korba, India, at the coordinates (22.3458, 82.69633). It has a 4.0 rating with 13 reviews and operates from 5:30 AM to 2:00 AM daily. Cafe Marina specializes in serving coffee and other beverages, and its featured image reveals a cozy and inviting ambiance. Unfortunately, more information about its offerings, such as food options or specific coffee varieties, is not available from the provided data.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Ezzedine Gabsi is a highly-rated restaurant located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. It is renowned for offering a delightful dining experience and has received excellent reviews from its customers. The restaurant has a rating of 5.0 based on 3 reviews, indicating its popularity and the high level of satisfaction among its patrons. The restaurant specializes in Restaurant cuisine, providing a delectable menu that caters to diverse tastes.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6362,14 +9215,73 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Fresh Juice Bar(cafes , Jwejim and Crepes) located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes), Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Cafe des arts to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>Fresh Juice Bar, located in Korba (lon: 82.69633, lat: 22.3458), is a popular spot for cafes, Jwejim, and sweet crepes. Open daily from 6:00 AM to 11:30 PM, the establishment has received rave reviews from customers and holds a 5.0 rating. Notable for its artistic cafe ambiance, Fresh Juice Bar is easily accessible and conveniently located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes).</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination with a variety of dining options, located in Korba and open from 06:00 to 23:30?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical **Ancien Pont De Korba** bridge for scenic views.
+**Mid-Morning:**
+* Visit the **ATPNE Korba** museum to delve into the region's rich history and culture.
+**Midday:**
+* Relish authentic Tunisian cuisine at the highly-rated **Street food el benna**.
+**Afternoon:**
+* Unwind amid the serene beauty of **Lac de Korba**, a picturesque park offering recreational activities.
+**Evening:**
+* Take a guided tour of the **Cafe Arabesque. H**, a charming 24-hour cafeteria with a cozy ambiance.
+**Night:**
+* Dine at **Restaurant El Baldi Chaouch**, renowned for its delectable poultry dishes.
+* Experience the vibrant nightlife of Korba by visiting **Dio Scatenato**, a bar renowned for its lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+My Street Food is a restaurant located in Korba, Tunisia, offering a delicious dining experience. Situated at coordinates (-27.4913169, 153.0406282), it operates from 10:00 am to 11:30 pm daily. With a 4.3 rating based on 3 reviews, this restaurant has garnered positive feedback from customers.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6467,12 +9379,66 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great bar, check out Dio Scatenato located at Q5QC+XHX Dio Scatenato, Rue Tahar El Haddad, Korba 8070. This top-rated spot is perfect for bar lovers and offers a range of bar options to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226.</t>
+          <t>Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Where is the highly-rated Dio Scatenato bar in Korba known for its exceptional bar offerings located?</t>
+          <t>Day Plan:
+Morning: Explore Africa Jade Thalasso Hotel, a luxurious beach resort with an outdoor pool and spa.
+Mid-Morning: Visit ATPNE Korba, a museum showcasing the history and culture of the region.
+Midday: Enjoy a delicious lunch at Waffle Cap, a highly-rated restaurant known for its breakfast options and friendly service.
+Afternoon: Relax on the pristine shores of Plage de Korba, swim in the crystal-clear waters, and soak up the sun.
+Evening: Take a guided tour of Ancien Pont De Korba, a historic bridge offering scenic views.
+Night: Dine at Dio Scatenato, a bar with a lively atmosphere and a 5.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>Given these locations:
+C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6582,12 +9548,66 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>Africa Jade Thalasso Hotel Korba, a top-rated hotel in korba, is the perfect destination for your accommodation needs. Located at HV55+XF7 Africa Jade Thalasso Hotel Korba, Avenue Habib Bourguiba, Korba 8070, it offers a range of amenities, including a pool, restaurants, and a wellness center. With a rating of 4.0 and 837 reviews, you can be sure that you'll have a great stay. Visit their website at http://www.africajade.com/hotel-africajade/ or call them at 72 384 633 for more details.</t>
+          <t>Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>What is the address of the highly-rated Africa Jade Thalasso Hotel Korba, which is known for its convenient location and excellent amenities?</t>
+          <t>Day Plan:
+Morning: Explore the ancient **ATPNE Korba** museum, offering insights into the region's history and culture.
+Mid-Morning: Visit the picturesque **Ancien Pont De Korba**, a scenic bridge with panoramic views.
+Midday: Immerse yourself in the local cuisine at **Naan house**, sampling authentic Indian flavors.
+Afternoon: Relax and enjoy the sun-kissed **Plage de Korba**, indulging in swimming, sunbathing, and beach activities.
+Evening: Take a guided tour of the **Lac de Korba**, a serene park with lush greenery and tranquil ambiance.
+Night: Dine at the highly-rated **Restaurant El Baldi Chaouch**, savoring traditional Tunisian dishes and experiencing the local culinary scene.</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Fresh Juice Bar, located in Korba (lon: 82.69633, lat: 22.3458), is a popular spot for cafes, Jwejim, and sweet crepes. Open daily from 6:00 AM to 11:30 PM, the establishment has received rave reviews from customers and holds a 5.0 rating. Notable for its artistic cafe ambiance, Fresh Juice Bar is easily accessible and conveniently located at HVC5+GWG Fresh Juice Bar(cafes , Jwejim and Crepes).
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6697,12 +9717,67 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to eat, check out Waffle Cap located at Bd de l'Environnement, Korba 8070. This top-rated destination is perfect for restaurant lovers and offers a range of options to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 19:30 to 04:00, but closed on unspecified days . To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at linktr.ee/wafflecap or call them at 70 295 400.</t>
+          <t>Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant with a diverse menu, located near Bd de l'Environnement in Korba?</t>
+          <t>Day Plan:
+Morning: Explore the ancient ruins of Ancien Pont De Korba, marveling at its architectural legacy.
+Mid-Morning: Visit the state-of-the-art ATPNE Korba museum, immersing yourself in thought-provoking exhibits.
+Midday: Savor authentic Tunisian cuisine at Restaurant PICCALILLI Korba, delighting in the flavors of local delicacies.
+Afternoon: Escape the bustling streets and rejuvenate with a relaxing stroll through Lac de Korba, enjoying the serene ambiance and scenic beauty.
+Evening: Indulge in a tantalizing dinner at MUMBAI, savoring traditional Indian dishes amidst a vibrant and aromatic atmosphere.
+Night: Experience the lively nightlife of Dio Scatenato, enjoying refreshing drinks and mingling with friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Restaurant PICCALILLI Korba is a highly rated restaurant located in Korba, Tunisia (36.6412521, 10.7603226). With a rating of 4.5 based on 2 reviews, this restaurant offers a great dining experience.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6812,12 +9887,66 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Bel Horizon located at HV73+65H Restaurant Bel Horizon, C27, Korba. This highly-rated destination is perfect for Restaurant lovers and has a rating of 4.6. It's open during these hours: 12:00-23:30, but closed on []. To get there, use these GPS coordinates: 50.6903346, 4.6752439. For more details, visit their website at http://www.restaurant-belhorizon.com/ or call them at 72 388 562.</t>
+          <t>Restaurant Bel Horizon is a highly rated restaurant located in korba (coordinates: 50.6903346, 4.6752439). The restaurant is known for its seafood dishes, wines and reasonable prices, as highlighted by customer reviews. Operating from 12:00-23:30, the restaurant boasts a cozy and welcoming ambiance, making it an ideal spot for a delightful dining experience.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>What is the highly-rated restaurant, perfect for Restaurant lovers, with a rating of 4.6, located at HV73+65H in Korba?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage de Korba, enjoying the crystal-clear waters and soft white sand. Engage in relaxing beach activities like swimming and sunbathing.
+Mid-Morning: Visit the historic ATPNE Korba museum, offering insights into the region's rich history and culture.
+Midday: Savor the authentic flavors of My Street Food, a cozy restaurant known for its delicious local cuisine.
+Afternoon: Shop for souvenirs and local products at the bustling market in the heart of Korba.
+Evening: Relax and unwind with a peaceful stroll through the picturesque Lac de Korba park, taking in its serene ambiance.
+Night: Immerse yourself in the vibrant atmosphere of Cafe Arabesque. H, a popular 24-hour cafeteria, and enjoy a nightcap before calling it a day.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6923,14 +10052,67 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great dining experience, check out Bella Artista located at Bd de l'Environnement. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.6, it's a must-visit spot. It's open during these hours: 07:30-01:30. To get there, use these GPS coordinates: 36.575090294408, 10.866672274972. For more details, visit their website at  or call them at 90 262 340.</t>
+          <t>**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where is Bella Artista located, a top-rated dining spot with a rating of 4.6 and known for its exceptional Restaurant offerings?</t>
+          <t>Day Plan:
+Morning: Explore Cafe Zico for a relaxing coffee experience.
+Mid-Morning: Visit ATPNE Korba to delve into the diverse exhibits.
+Midday: Indulge in local cuisine at Bella Artista, renowned for its culinary delights.
+Afternoon: Enjoy the scenic beauty of Plage de Korba, perfect for relaxation and beach activities.
+Evening: Head to VAPIANO for a delightful dining experience with freshly prepared pasta and salads.
+Night: Experience the vibrant atmosphere at Dio Scatenato, known for its friendly staff and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**Bella Artista** is a highly-rated restaurant with a 4.6 rating out of 16 reviews. Located at 36.575090294408, 10.866672274972 in Korba, Bella Artista is open from 7:30 AM to 1:30 AM daily.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7032,12 +10214,67 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Cafe Marina located at HVJ8+Q9H Cafe Marina, Korba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 05:30-02:00. To get there, use these GPS coordinates: 22.3458, 82.69633.</t>
+          <t>Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly rated cafe (Cafe Marina) serving various cafe options and has a 4.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage de Korba, renowned for its pristine waters and soft white sand. Take a leisurely walk or indulge in exhilarating water activities like swimming or fishing.
+Mid-Morning: Immerse yourself in the local cuisine at Nes Cute Korba, where you can savor delicious and affordable meals. Their extensive menu offers a wide variety of dishes that will satisfy your cravings.
+Midday: Visit the captivating Ancien Pont De Korba, a historical bridge offering breathtaking views. Capture the beauty of the bridge and soak in the ambiance of the surroundings.
+Afternoon: Head to VAPIANO, a charming restaurant located in Korba, Tunisia. Enjoy freshly made pasta, delectable pizzas, and crisp salads in the laid-back ambiance of VAPIANO.
+Evening: Embark on a guided tour of ATPNE Korba, a state-of-the-art museum showcasing a diverse range of exhibits. Witness gripping displays and delve into the rich culture and history of the region.
+Night: Experience the vibrant Dio Scatenato, a popular bar in Korba, Tunisia. Unwind in the lively atmosphere, sip on refreshing beverages, and soak in the local vibes.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+This is the Facebook page of Fast food Abderrahmen located at Korba, Tunisia. The Restaurant is highly rated online with 5.0 scores. With this, you can call them on 55 607 935.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7139,15 +10376,67 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a satisfying dining experience, head to Restaurant Le Bongout, situated at HVH6+2J5 Bd de l'Environnement. 
-This highly rated restaurant is a top choice for food enthusiasts, offering a delightful menu. With a remarkable rating of 4.2, it's a culinary destination worth exploring. 
-The restaurant caters to a wide range of tastes, specializing in Restaurant cuisine. From 10:00-23:00, Restaurant Le Bongout welcomes diners to savor its delectable offerings. 
-For further information, visit their website or contact them directly.</t>
+          <t>Restaurant Le Bongout is a well-rated restaurant in Korba. It is located at coordinates (22.3458, 82.69633) and offers a wide variety of dishes as part of its restaurant services.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a diverse menu in Korba, offering exceptional culinary experiences from 10:00-23:00?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Ancien Pont De Korba**, a bridge offering scenic views of the city.
+Mid-Morning: Try local cuisine at **Restaurant Del Capo**, known for its delicious pizza and fast food options.
+Midday: Visit the **ATPNE Korba** museum to delve into the city's heritage and culture.
+Afternoon: Relax at the tranquil **Lac de Korba (Cite jerbi.Essabkha)** park, offering ample space for recreation and serenity.
+Evening: Enjoy the lively ambiance at **Cafe Zico**, a cozy cafe perfect for unwinding with a coffee and soaking up the local atmosphere.
+Night: Indulge in a memorable dining experience at **VAPIANO**, known for its freshly made pasta and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Zico is a cozy cafe located in Korba, Tunisia. It offers a relaxing atmosphere and delicious coffee. The cafe is conveniently located at Rue de la Liberte, Korba 8070, making it easy to find. With its inviting ambiance and prime location, Cafe Zico is the perfect place to unwind and enjoy a cup of coffee.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7253,16 +10542,66 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Del Capo located at 01 Avenue Habib Bourguiba, Korba.
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria, Restauration rapide to choose from.
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on [].
-To get there, use these GPS coordinates: 36.564735255874, 10.854249540664.
-For more details, visit their website at  or call them at 29 033 031.</t>
+          <t>Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Pizzeria destination with a rating of 4.1 located in Korba?</t>
+          <t>Day Plan:
+Morning: Explore the historic **Ancien Pont De Korba**, offering scenic views and a glimpse into the local culture.
+Mid-Morning: Indulge in local flavors at the highly-rated **Restaurant PICCALILLI Korba**, known for its delectable cuisine.
+Midday: Unwind and relax on the pristine sands of the **Plage de Korba**, engaging in swimming, sunbathing, or simply enjoying the coastal ambiance.
+Afternoon: Embark on a guided tour of the **ATPNE Korba** museum, delving into the region's rich history and cultural heritage.
+Evening: Savor a delicious dinner at **Restaurant Del Capo**, a charming pizzeria known for its authentic Italian flavors.
+Night: Head to **Cafe Arabesque. H** for a cozy and convivial ambiance, where you can sip on beverages and immerse yourself in the local nightlife.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7360,12 +10699,66 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out MUMBAI located at HVG7+6WC MUMBAI, Korba. This top-rated destination is perfect for Restaurant indien lovers and offers a range of Restaurant indien to choose from. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/MUMBAI/data=!4m7!3m6!1s0x1302bb69e1b71df5:0x38ef1a95c6f9e386!8m2!3d36.5755729!4d10.8647602!16s%2Fg%2F11v3ffxj71!19sChIJ9R234Wm7AhMRhuP5xpUa7zg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).</t>
         </is>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
-          <t>What is the top-rated Restaurant indien destination located in HVG7+6WC MUMBAI, Korba, that boasts a 4.0 rating and a range of Restaurant indien options?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage de Korba, boasting crystal-clear waters and soft white sand. Indulge in swimming, sunbathing, or a leisurely walk along the picturesque beachfront.
+Mid-Morning: Head to the vibrant Restaurant Bel Horizon, renowned for its delectable seafood and reasonable prices. Enjoy a delightful lunch while savoring the authentic flavors of Korba.
+Midday: Visit the ATPNE Korba museum, which offers a captivating glimpse into the rich history and culture of the region. Immerse yourself in the fascinating exhibits.
+Afternoon: Escape to Lac de Korba for a tranquil respite. Stroll amidst the serene park grounds, relishing the peaceful atmosphere and lush greenery.
+Evening: Experience the vibrant ambiance of Dio Scatenato bar, known for its lively atmosphere and friendly staff. Sip on refreshing drinks and soak up the lively local culture.
+Night: Treat yourself to a delightful dinner at Restaurant El Baldi Chaouch, specializing in traditional poultry dishes. Savor the authentic flavors and warm hospitality of Korban cuisine.</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7471,12 +10864,66 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated cafe, check out Cafe IN at HVC4+3QV Cafe IN, C27. With a rating of 4.8, it's a must-visit spot for cafe lovers. Open from 7 am to 11:30 pm, this popular destination offers a range of cafe-related options to choose from. To get there, use GPS coordinates (22.3458, 82.69633). For more details, call them at 20 662 225.</t>
+          <t>Cafe IN, located in Korba, is a highly-rated cafe known for its cozy ambiance and delicious offerings. It opens daily from 7 AM to 11:30 PM, offering a convenient spot for locals and visitors alike. With a 4.8-star rating based on 6 reviews, Cafe IN is a popular destination for those seeking a great cup of coffee or a quick bite.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where in Korba can you find Cafe IN, a highly-rated cafe with a 4.8 rating and a wide selection of cafe offerings?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba for its picturesque beachfront and crystal-clear waters.
+Mid-Morning: Visit ATPNE Korba for a deep dive into the region's history and culture.
+Midday: Satisfy your taste buds with Tunisian cuisine at well-rated Nes cute korba.
+Afternoon: Relax and rejuvenate with a massage at the charming il Castello B&amp;B.
+Evening: Enjoy a casual dining experience at VAPIANO for freshly made pasta and pizzas.
+Night: Immerse yourself in the vibrant atmosphere of Dio Scatenato, a bar known for its excellent ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7578,12 +11025,73 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in Korba, Cafe Zico is a top-rated destination for cafe lovers. Located at Rue de la Liberte, it offers a range of cafe options to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, call them at 97 240 009.</t>
+          <t>Cafe Zico is a highly-rated cafe located in Rue de la Liberte, Korba, Tunisia. It has received an average rating of 4.5 out of 5, based on 6 reviews. Unfortunately, no additional information regarding its description, featured image, website, or opening hours is available.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe in Korba, offering a wide selection of options and attracting many visitors with its 4.5-star rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the **ATPNE Korba** museum to delve into the city's art and culture.
+**Mid-Morning:**
+- Visit the **Ancien Pont De Korba** bridge for scenic views and a touch of local history.
+**Midday:**
+- Savor local Tunisian cuisine at **Restaurant Bel Horizon** for a delightful culinary experience.
+**Afternoon:**
+- Engage in outdoor activities like swimming and sunbathing at the pristine **Plage de Korba**.
+**Evening:**
+- Take a romantic stroll through **Lac de Korba** park, enjoying the serene atmosphere.
+**Night:**
+- Unwind with a drink at **Dio Scatenato**, a bar highly rated for its friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+C27 coffee is a popular cafe located in Korba. It offers a variety of coffee drinks and snacks in a cozy and inviting atmosphere. The cafe is highly rated by visitors, with a 5.0 rating on Google.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7681,12 +11189,66 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a top-rated restaurant, check out Restaurant Gadour located at HVJ5+J8R Restaurant Gadour, Korba. This destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their link at https://www.google.com/maps/place/Restaurant+Gadour/data=!4m7!3m6!1s0x1302bb13bc5df6e1:0x7989e044c75d1fa!8m2!3d36.5816226!4d10.8582764!16s%2Fg%2F11l22t3tkm!19sChIJ4fZdvBO7AhMR-tF1TASemAc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Restaurant Gadour is a highly-rated restaurant located in Korba. Situated at the coordinates (22.3458, 82.69633), it is renowned for its excellent service, as evidenced by its 4.6 rating based on 5 reviews. Though its website and phone number are not provided in the given information, its prominent features and positive feedback from patrons make it a desirable dining destination in the area.</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated restaurant with exceptional Restaurant options and a rating of 4.6?</t>
+          <t>Day Plan:
+Morning: Explore Lac de Korba, a picturesque park offering serenity amidst the bustling city.
+Mid-Morning: Visit Ancien Pont De Korba, a bridge that provides scenic views and a glimpse into the local culture.
+Midday: Try local cuisine at Restaurant Ezzedine Gabsi, renowned for its delightful dining experience and excellent reviews.
+Afternoon: Relax at Cafe Arabesque. H, a popular 24-hour cafeteria with a cozy ambiance and 5-star rating.
+Evening: Visit Dio Scatenato, a bar with a great atmosphere and friendly staff, for a relaxing drink and evening entertainment.
+Night: Engage in outdoor activities such as swimming or picnicking at Plage Korba, a beautiful beach with crystal-clear waters and soft white sand.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Ezzedine Gabsi is a highly-rated restaurant located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. It is renowned for offering a delightful dining experience and has received excellent reviews from its customers. The restaurant has a rating of 5.0 based on 3 reviews, indicating its popularity and the high level of satisfaction among its patrons. The restaurant specializes in Restaurant cuisine, providing a delectable menu that caters to diverse tastes.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7792,12 +11354,66 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Restaurant, check out Fast food Abderrahmen located at HVH5+89P Fast food Abderrahmen, Korba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:30-15:00, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at 55 607 935.</t>
+          <t>This is the Facebook page of Fast food Abderrahmen located at Korba, Tunisia. The Restaurant is highly rated online with 5.0 scores. With this, you can call them on 55 607 935.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated restaurant with a wide variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore Cafe IN for a cozy ambiance and delicious coffee.
+Mid-Morning: Visit Africa Jade Thalasso Hotel for a relaxing swim in the outdoor pool.
+Midday: Try local cuisine at Restaurant Le Bongout.
+Afternoon: Enjoy scenic views at Plage de Korba and engage in beach activities.
+Evening: Participate in an ATPNE Korba museum tour to learn about the local history and culture.
+Night: Relax with a drink at Dio Scatenato bar for its great atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba, is a highly-rated cafe known for its cozy ambiance and delicious offerings. It opens daily from 7 AM to 11:30 PM, offering a convenient spot for locals and visitors alike. With a 4.8-star rating based on 6 reviews, Cafe IN is a popular destination for those seeking a great cup of coffee or a quick bite.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Restaurant Le Bongout is a well-rated restaurant in Korba. It is located at coordinates (22.3458, 82.69633) and offers a wide variety of dishes as part of its restaurant services.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7899,14 +11515,67 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant Ezzedine Gabsi located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-00:00. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Ezzedine+Gabsi/data=!4m7!3m6!1s0x1302bb6e965d3bf5:0xbd72946edd7a2042!8m2!3d36.5821581!4d10.8640039!16s%2Fg%2F11h4whtbwk!19sChIJ9Ttdlm67AhMRQiB63W6Ucr0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant Ezzedine Gabsi, located in Korba (coordinates: 22.3458, 82.69633), is a highly-rated (5.0 stars out of 3 reviews) restaurant. With a focus on a specific cuisine, this eatery is open every day from 10:00-00:00, offering a delectable dining experience.</t>
         </is>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Korba, known for its top-notch dining experience in a convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historical sites of KORBA, Tunisia, including the ruins of the Roman amphitheatre and the Arab fortress.
+Mid-Morning: Visit ATPNE Korba, a state-of-the-art museum showcasing a diverse range of exhibits.
+Midday: Enjoy a delicious meal of traditional Tunisian dishes at Street food el benna.
+Afternoon: Relax and rejuvenate at the beautiful Lac de Korba (Cite jerbi.Essabkha), a picturesque park offering ample space for recreation and relaxation.
+Evening: Indulge in a delightful dining experience at Restaurant Baraka, known for its excellent cuisine and cozy ambiance.
+Night: Experience the vibrant atmosphere and friendly staff at Dio Scatenato, a popular bar in Korba, perfect for winding down the evening.</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Restaurant Baraka is a restaurant located in Korba, Algeria. It has a rating of 5.0 based on 1 review. The restaurant's coordinates are (36.7249519, 3.0806435).
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8004,14 +11673,67 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for somewhere to eat, check out My Street Food located at My Street Food, Korba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 10:00-23:30. To get there, use these GPS coordinates: -27.4913169, 153.0406282. For more details, visit their website at https://www.google.com/maps/place/My+Street+Food/data=!4m7!3m6!1s0x1302bb84161eb2ab:0xeb57055d298e0c44!8m2!3d36.5748619!4d10.8641567!16s%2Fg%2F11g20hfmrx!19sChIJq7IeFoS7AhMRRAyOKV0FV-s?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Restaurant destination with a 4.3 rating, located near korba?</t>
+          <t>Day Plan:
+Morning: Exploring Plage de Korba and enjoying its pristine beach and crystal-clear waters.
+Mid-Morning: Trying local cuisine at Street food el benna, sampling the diverse traditional Tunisian dishes.
+Midday: Visiting the ATPNE Korba museum and engaging with its thought-provoking exhibits.
+Afternoon: Relaxing at il Castello B&amp;B's charming guest house and soaking in the ambiance.
+Evening: Dining at Nes Cute Korba and savoring its delicious and affordable meals.
+Night: Enjoying the lively atmosphere and friendly staff at Dio Scatenato bar.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Echbilya Cafe is a highly-rated (5.0/5) cafe located in Korba, Tunisia. It opens from 7:30 am to 10 pm every day of the week. The cafe is well-known for its delicious food and friendly service. Its exact coordinates are (22.3458, 82.69633) and its address is HVJ5+H9F Echbilya Cafe, rue ahmed kbabou, Korba.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+"Fresh Juice Bar" is a 5-star rated café located in Korba at the coordinates (22.3458, 82.69633). It is open from 6:00 AM to 11:30 PM, and offers a variety of drink options, including fresh juices, crepes, and jwejim. The café also has a Facebook page where customers can learn more about the menu and ask questions.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8117,12 +11839,67 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Nes cute korba located at HVJ5+FRR Nes cute korba, Rue hedi chaker, Korba. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-01:00, but closed on none. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at nan or call them at 52 727 160.</t>
+          <t>Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated destination known for its Restauration rapide cuisine?</t>
+          <t>Day Plan:
+Morning: Explore the ATPNE Korba museum, showcasing a diverse range of exhibits.
+Mid-Morning: Visit the Korba beach (Plage de Korba), known for its crystal-clear waters and ideal for swimming and sunbathing.
+Midday: Try local cuisine at W.Food, renowned for its excellent dishes and 5-star rating.
+Afternoon: Engage in cultural immersion at the Ancien Pont De Korba bridge, offering scenic views and a chance to experience the local atmosphere.
+Evening: Indulge in the vibrant ambiance of Dio Scatenato, a bar with a 5.0 rating known for its friendly staff and lively atmosphere.
+Night: Experience the authentic Tunisian flavors at Street food el benna, a restaurant that offers a wide variety of traditional dishes.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Bateau is a cafe in Korba, Tunisia. It's located at the coordinates (36.5796342, 10.8706392) and has a rating of 3.6 out of 5 based on 57 reviews. The cafe is open from 8:00 AM to 12:00 AM every day and is known for its beautiful view.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+W.Food is a restaurant located in Korba, Tunisia. It offers a variety of dishes and is rated 5.0 stars by its customers. You can reach the restaurant by phone at 90 385 392.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an Indian restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It offers a variety of Indian dishes and has a rating of 5.0 out of 5.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8228,14 +12005,66 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out VAPIANO located at HVG7+9MC VAPIANO, Bd de l'Environnement. 
-This top-rated destination is perfect for Restaurant de cendol lovers and offers a range of categories to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-01:00, but closed on unspecified days. To get there, use these GPS coordinates: 36.575967388496, 10.865034363635. For more details, visit their website at https://www.google.com/maps/place/VAPIANO/data=!4m7!3m6!1s0x1302bb76cdcdcc4d:0x58aa4ea95ecdf203!8m2!3d36.5759378!4d10.8641445!16s%2Fg%2F11tctj5mq2!19sChIJTczNzXa7AhMRA_LNXqlOqlg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining experience in Korba, featuring a range of categories and a 5.0 rating?</t>
+          <t>Day Plan:
+Morning: Explore the pristine Plage de Korba, renowned for its white sandy shores and turquoise waters. Immerse yourself in the local culture and interact with the friendly locals.
+Mid-Morning: Visit the ATPNE Korba museum to delve into the rich history and heritage of the region. Discover fascinating exhibits and artifacts that showcase the town's past and present.
+Midday: Indulge in authentic Tunisian cuisine at Street food el benna, known for its delectable traditional dishes. Relish the flavors of this vibrant culinary scene while savoring the warm ambiance.
+Afternoon: Embark on a guided tour of the scenic Lac de Korba (Cite jerbi.Essabkha) park. Stroll through its lush greenery, admire the serene lake views, and unwind in this tranquil oasis.
+Evening: Experience the lively atmosphere at Dio Scatenato, a popular bar in the heart of Korba. Sip on refreshing drinks, engage in lively conversations, and soak in the vibrant ambiance of this social hub.
+Night: Immerse yourself in the culinary delights of MUMBAI, an Indian restaurant offering an array of authentic dishes. Delight in the aromatic flavors and spices that define Indian cuisine, ending your day on a gastronomic high.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Bistrot badra hawari is a cafe located in Korba, Tunisia at (36.6412521, 10.7603226). It has a rating of 5.0 and is open 24 hours a day.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+**My Street Food** is a restaurant located in Korba, Tunisia. It has a rating of 4.3 stars out of 5 and is open from 10:00 AM to 11:30 PM. It offers various dishes and is known for its cozy ambiance. The restaurant has received positive reviews from customers, highlighting its delicious food and friendly service.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8341,14 +12170,67 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Street food el benna located at HVG5+H2J Street food el benna, Korba. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of Restaurant tunisien to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 09:00-21:00, but closed on dimanche. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, call them at 53 230 327.</t>
+          <t>Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>What is the name and exact location of the highly-rated Restaurant tunisien spot in Korba?</t>
+          <t>**Day Plan:**
+**Morning:** Explore ATPNE Korba, a captivating museum showcasing fascinating exhibits.
+**Mid-Morning:** Visit Plage Korba, a stunning beach with crystal-clear waters and soft white sand, perfect for swimming and enjoying the sun.
+**Midday:** Savor a delicious lunch at Cafe Abattoir, known for its friendly atmosphere and tasty food options.
+**Afternoon:** Take a guided tour of Korba's Ancien Pont De Korba, an iconic bridge with picturesque views.
+**Evening:** Immerse yourself in the vibrant atmosphere of Dio Scatenato, a bar celebrated for its convivial ambiance and friendly staff.
+**Night:** Indulge in a delightful dinner at Street food el benna, a Tunisian restaurant offering a delectable array of traditional dishes.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+**Cafe Abattoir** is a 24/7 cafe located at (22.3458, 82.69633) in Korba. It's a popular spot for locals and tourists alike, serving a variety of food and drinks, including coffee, tea, sandwiches, and pastries. The cafe is known for its friendly staff and relaxed atmosphere, making it a great place to meet up with friends or get some work done.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Gadour is a highly-rated restaurant located in Korba. Situated at the coordinates (22.3458, 82.69633), it is renowned for its excellent service, as evidenced by its 4.6 rating based on 5 reviews. Though its website and phone number are not provided in the given information, its prominent features and positive feedback from patrons make it a desirable dining destination in the area.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8458,12 +12340,66 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a great place to eat, check out Fresh Juice Bar located at HVC5+GWG, Korba. This top-rated restaurant is perfect for Restaurant and Cafe Des Arts lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-23:30, but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100065574786127 or call them at 55 112 189.</t>
+          <t>Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated restaurant that caters to enthusiasts of both Restaurant and Cafe Des Arts?</t>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage de Korba, enjoying the crystal-clear waters and soft white sand.
+Mid-Morning: Take a refreshing dip in Africa Jade Thalasso Hotel's outdoor swimming pool.
+Midday: Indulge in a delightful seafood meal at Restaurant Bel Horizon, known for its delectable cuisine and reasonable prices.
+Afternoon: Visit the charming il Castello B&amp;B, a guest house with a high rating and charming ambiance.
+Evening: Stroll through the lively streets of Korba, experiencing the vibrant local culture and diverse shopping options.
+Night: Unwind at Cafe Arabesque. H, a cozy 24-hour cafeteria with a welcoming atmosphere and delicious beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Bel Horizon, located in the heart of Korba (50.6903346, 4.6752439), is an appreciated restaurant praised for its seafood, wine selection and reasonable prices by its 53 reviewers. It has an average rating of 4.6. The restaurant is open daily from 12:00 to 23:30. The website of the restaurant is http://www.restaurant-belhorizon.com/ and its phone number is 72 388 562.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8561,12 +12497,66 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Restaurant, check out Restaurant PICCALILLI Korba located at HVC5+WH3 Restaurant PICCALILLI Korba, nhH mHmd byrm ltwnsy, Korba 8070. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website at https://www.google.com/maps/place/Restaurant+PICCALILLI+Korba/data=!4m7!3m6!1s0x1302bb6dd1e8c23d:0xb507186df740334e!8m2!3d36.572264!4d10.8589326!16s%2Fg%2F11fvxlcf3l!19sChIJPcLo0W27AhMRTjNA920YB7U?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Restaurant PICCALILLI Korba is a highly rated restaurant located in Korba, Tunisia (36.6412521, 10.7603226). With a rating of 4.5 based on 2 reviews, this restaurant offers a great dining experience.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>If you're craving some excellent dining in Korba, what highly-rated restaurant is situated at HVC5+WH3 and known for its diverse Restaurant categories?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of KORBA, Tunisia, including the Roman amphitheater and Arab fortress.
+Mid-Morning: Visit Restaurant Bel Horizon for a delicious seafood meal with stunning views of the Mediterranean Sea.
+Midday: Relax and sunbathe at the beautiful Plage de Korba, enjoying the crystal-clear waters and soft white sand.
+Afternoon: Take a guided tour of **ATPNE Korba**, a museum showcasing the rich history and culture of the region.
+Evening: Experience the lively atmosphere at Cafe Arabesque. H, a 24-hour cafeteria offering a cozy ambiance and refreshing beverages.
+Night: Enjoy a traditional Tunisian dinner at Street food el benna, known for its authentic flavors and welcoming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+Restaurant Bel Horizon is a highly-rated restaurant in Korba, with an impressive 4.6 rating based on 53 reviews. It offers seafood and other dishes, and is known for its reasonable prices and extensive wine list. Located at coordinates (50.6903346, 4.6752439), it is a popular destination for locals and tourists alike.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8672,14 +12662,66 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out First One located at HVG6+CWR First One, Bd de l'Environnement, Korba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 15:00-23:00, but closed on []. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at https://www.google.com/maps/place/First+One/data=!4m7!3m6!1s0x1302bbbb6d1b057f:0xd753de88de6decd8!8m2!3d36.5761199!4d10.8622538!16s%2Fg%2F11r4bj1rn_!19sChIJfwUbbbu7AhMR2Oxt3ojeU9c?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 794 709.</t>
+          <t>First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>Where in Korba can you indulge in a delicious Pizzeria experience at a top-rated spot?</t>
+          <t>Day Plan:
+Morning: Exploring the historic streets of Korba (Tunisia)
+Mid-Morning: Trying local cuisine at Street food el benna
+Midday: Visiting the scenic Ancien Pont De Korba
+Afternoon: Enjoying the sun and sand at Plage Korba
+Evening: Relaxing with a drink at Dio Scatenato
+Night: Experiencing the vibrant atmosphere at Cafe Arabesque. H</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Fresh Juice Bar is a restaurant located in Korba, India. It is a popular destination for locals and tourists alike, offering a variety of delicious food and drinks. The restaurant is located at coordinates (22.3458, 82.69633) has a rating of 5.0 and is open from 06:00-23:30. Fresh Juice Bar is a great place to relax and enjoy a meal or drink, and is sure to please everyone in your group.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8777,13 +12819,67 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t xml:space="preserve">If you're in Korba and looking for a top-rated restaurant, Casa mia located at HVG5+4GX Casa mia, Korba is a must-visit spot. 
-With a rating of 4.0, it's one of the most popular restaurants in the area and is perfect for Restaurant lovers. </t>
+          <t>Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find the top-rated restaurant with a 4.0 rating in Korba, perfect for dining enthusiasts?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the historical ruins of the Roman amphitheatre and Arab fortress in KORBA, Tunisia.
+Mid-Morning: Indulge in the culinary delights of Nes cute korba, a local fast-food restaurant serving an array of burgers, sandwiches, and fries.
+Midday: Visit VAPIANO for a casual dining experience. Enjoy fresh pasta dishes, delectable pizzas, and crisp salads.
+Afternoon: Head to the Plage de Korba for some sunbathing, swimming, or fishing. Pack a picnic basket and relish the scenic beach views.
+Evening: Explore the ATPNE Korba museum, showcasing diverse exhibits. Engage in thought-provoking displays and immerse yourself in the local culture.
+Night: Experience the lively atmosphere at Dio Scatenato, a highly-rated bar in Korba. Sip on refreshing beverages and unwind with friendly locals.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8877,12 +12973,66 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Restaurant El Baldi Chaouch located at HVM7+7WX Restaurant El Baldi Chaouch, Korba. This top-rated destination is perfect for Restaurant de volaille lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at or call them at .</t>
+          <t>Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>If you're a Restaurant de volaille enthusiast in Korba, what top-rated destination is just a short journey away from you?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Plage de Korba and enjoying swimming or sunbathing.
+Mid-Morning: Trying local cuisine at Street food el benna, known for its traditional Tunisian dishes.
+Midday: Visiting the fascinating ATPNE Korba museum to learn about the region's history and culture.
+Afternoon: Experiencing the lively atmosphere at Cafe Arabesque. H, a popular cafeteria offering beverages and snacks.
+Evening: Enjoying dinner at VAPIANO, a casual restaurant featuring freshly made pasta and delicious pizzas.
+Night: Relaxing with a drink at Dio Scatenato, a highly rated bar with a friendly ambiance.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.
+Africa Jade Hotel is a well-rated hotel complex in Korba, Tunisia. It features a range of amenities including an outdoor pool, 5 restaurants, and 5 bars. The hotel is located on the beachfront, offering stunning views of the Mediterranean Sea.
+W.Food is a restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It has a 5.0 rating based on one review and is owned by W.Food (proprietaire).
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+First One is a pizzeria located on the Bd de l'Environnement in Korba, Tunisia. It is owned by First One (proprietaire) and has a rating of 4.0. The pizzeria is open from 15:00 to 23:00 and is closed on Mondays. First One offers a variety of pizzas, as well as other Italian dishes. It is a popular spot for locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8976,12 +13126,67 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Naan house located at HVG7+CX5 Naan house, rue de l'environnement, Korba 8070. This top-rated destination is perfect for Restaurant indien lovers and offers a range of Restaurant indien to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 36.6412521, 10.7603226.</t>
+          <t>Naan house is an indian restaurant located in korba.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>What is the GPS location of the top-rated Restaurant indien destination in Korba, known for its exceptional cuisine?</t>
+          <t>Day Plan:
+Morning: Explore VAPIANO, indulge in their fresh pasta, pizzas, and salads.
+Mid-Morning: Discover the exhibits at ATPNE Korba, a state-of-the-art museum.
+Midday: Savor the local cuisine at Restaurant PICCALILLI Korba, known for its excellent ratings and delectable offerings.
+Afternoon: Embark on a guided tour of Ancien Pont De Korba, capturing the scenic beauty and local culture.
+Evening: Relax and unwind at Dio Scatenato, a bar with a lively atmosphere and friendly staff.
+Night: Experience the vibrant culinary scene at Restaurant El Baldi Chaouch, specializing in authentic poultry dishes.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Marina is a cafe located in Korba, India. It is famous for serving delicious food and beverages and has a rating of 4.0. The cafe is open from 5:30 AM to 2:00 AM and is located at the coordinates (22.3458, 82.69633).
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9083,12 +13288,66 @@
       </c>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated dining experience, check out W.Food located at W.Food, 8070, Korba 8070. This restaurant is perfect for Restaurant lovers with a rating of 5.0. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website or call them at 90 385 392.</t>
+          <t>W.Food is a restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It has a 5.0 rating based on one review and is owned by W.Food (proprietaire).</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (with a rating of 5.0) in Korba that's a popular destination for Restaurant lovers?</t>
+          <t>Day Plan:
+Morning: Explore the historic Ancien Pont De Korba, a picturesque bridge offering stunning views.
+Mid-Morning: Engage in cultural immersion at ATPNE Korba, a museum showcasing the region's rich history and heritage.
+Midday: Savor local cuisine at Waffle Cap, a highly-rated restaurant known for its delicious food and friendly ambiance.
+Afternoon: Relax and enjoy the natural beauty of Plage de Korba, a beach with crystal-clear waters and soft white sand, perfect for swimming and sunbathing.
+Evening: Take a guided tour of the captivating Il Castello B&amp;B, a charming bed and breakfast located in a serene setting just outside the city center.
+Night: Experience the vibrant nightlife at Dio Scatenato, a popular bar with a lively atmosphere and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe du Lac is a 4.5 rated Cafe located in Korba, at coordinates (22.3458, 82.69633). Its featured image is https://lh5.googleusercontent.com/p/AF1QipOFzfGR7_z2jS9x5HjIv9xZWAsfjhheTvVFh5h3=w426-h240-k-no. The place opens from 05:00-23:00 and is closed on [].
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Waffle Cap, located in Korba (36.6412521, 10.7603226), is a highly-rated restaurant with 4.6 stars from 221 reviews. It opens late, from 7:30 PM to 4:00 AM, and offers a wide selection of food and beverages. The friendly servers and reasonable prices have made it a popular spot for locals and tourists alike. The restaurant's website, https://linktr.ee/wafflecap, provides more information on its menu and offerings.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Restaurant Del Capo is a pizzeria located on 01 Avenue Habib Bourguiba in Korba. It is open 24 hours a day and has a rating of 4.1 on Google. The restaurant's main category is Pizzeria, and it also offers fast food. Restaurant Del Capo has 8 reviews and its featured image can be found at https://lh5.googleusercontent.com/p/AF1QipPE4oJaqMl10mMRLXS54RvWefpcBBFLpmakggL_=w408-h725-k-no.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9194,13 +13453,66 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a great Cafe place, you should check out Cafe KING, located at Cafe KING, Av. H. Bourguiba, Korba 8070. 
-This top-rated spot is perfect for Cafe lovers and a must-visit place with a rating of 5. It's open 24 hours a day, but closed on None. To get there, use these GPS coordinates: 36.6412521, 10.7603226. For more details, visit their website.</t>
+          <t>Cafe KING is a highly-rated cafe located in Korba, Tunisia, offering a cozy and inviting atmosphere to its patrons. With a rating of 5.0 based on one review, it's a popular spot for locals and visitors alike. Open 24 hours a day, Cafe KING serves a variety of beverages and snacks to cater to the needs of its customers. Its convenient location on Av. H. Bourguiba makes it easily accessible. The cafe's featured image showcases its warm and inviting interior, while its owner's profile and link provide additional insights into the establishment.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe in Korba that's open 24 hours and serves as a popular spot for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore Plage de Korba, renowned for its crystal-clear waters and soft white sand.
+Mid-Morning: Try local Tunisian cuisine at Restaurant Ezzedine Gabsi, known for its excellent reviews and delightful dining experience.
+Midday: Visit ATPNE Korba, a museum offering insightful exhibits on the region's history and culture.
+Afternoon: Enjoy a relaxing walk along Ancien Pont De Korba, offering picturesque views and a chance to witness local life.
+Evening: Indulge in a culinary masterpiece at Restaurant Del Capo, a highly-rated pizzeria serving delectable pizzas and fast food options.
+Night: Experience the lively ambiance of Cafe Arabesque. H, a popular 24-hour cafeteria with a cozy atmosphere ideal for unwinding and enjoying refreshments.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant Ezzedine Gabsi is a highly-rated restaurant located at HVJ7+VJ6 Restaurant Ezzedine Gabsi, C27, Korba. It is renowned for offering a delightful dining experience and has received excellent reviews from its customers. The restaurant has a rating of 5.0 based on 3 reviews, indicating its popularity and the high level of satisfaction among its patrons. The restaurant specializes in Restaurant cuisine, providing a delectable menu that caters to diverse tastes.
+**Korba (Tunisia)** is a city with a 4.1-star rating and 35 reviews. Located at coordinates (36.57861, 10.85861), it is known for its beach and offers consulting services for business management.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+Naan house is an indian restaurant located in korba.
+Nes Cute Korba is a fast food restaurant located in Korba. It is the perfect place to satisfy your cravings for delicious and affordable meals. Nes Cute Korba is open from 11:00 AM to 01:00 AM and is conveniently located on Rue hedi chaker. With an average rating of 5.0, Nes Cute Korba is a popular spot among locals and tourists alike.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9294,14 +13606,73 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you are searching for somewhere to eat in korba, then look no further than Restaurant Baraka at HVF5+VH3.
-This top-rated destination is a must-visit spot for Restaurant lovers, with a rating of 5.0. 
-To find out more, visit their website at https://www.google.com/maps/place/Restaurant+Baraka/data=!4m7!3m6!1s0x1302bb5f58059cc9:0x76773ecbd65993bd!8m2!3d36.5746309!4d10.8589309!16s%2Fg%2F11ng2rdynx!19sChIJyZwFWF-7AhMRvZNZ1ss-d3Y?authuser=0&amp;hl=fr&amp;rclk=1 or call them on .</t>
+          <t>Restaurant Baraka is a restaurant located in Korba, Algeria. It has a rating of 5.0 based on 1 review. The restaurant's coordinates are (36.7249519, 3.0806435).</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant in Korba with a 5.0 rating and an easy-to-find location at HVF5+VH3?</t>
+          <t>**Day Plan:**
+**Morning:**
+* **Exploring Korba:** Stroll through the streets, visit the center of the city, and admire the local architecture and street art.
+**Mid-Morning:**
+* **Trying local cuisine at Cafe IN:** Enjoy a delicious breakfast or brunch at this popular cafe, known for its excellent service and a wide variety of offerings.
+**Midday:**
+* **Visiting ATPNE Korba:** Immerse yourself in art and culture at this state-of-the-art museum, open 24 hours a day.
+**Afternoon:**
+* **Enjoying recreational activities at Plage Korba:** Relax and unwind on the picturesque beachfront, taking in the crystal-clear waters and soft white sand.
+**Evening:**
+* **Relaxing at VAPIANO:** Savor made-to-order pasta, delectable pizzas, and crisp salads in the laid-back dining atmosphere of VAPIANO.
+**Night:**
+* **Experiencing cultural immersion at Cafe Arabesque. H:** Unwind with your favorite beverages and snacks in this 24-hour cafeteria, offering a cozy ambiance and top-rated service.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe IN, located in Korba at (82.69633, 22.3458), is a popular cafe known for its excellent service and a wide variety of offerings. Open from 7 AM to 11:30 PM, Cafe IN serves a delicious selection of food and beverages, making it a great spot for breakfast, lunch, dinner, or a coffee break.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Casa mia is a 4 star rated restaurant in Korba, India, offering a pleasant dining experience. Situated at the coordinates (22.3458, 82.69633), the restaurant focuses on offering a delightful culinary journey. With 2 reviews and a featured image showcasing the ambiance, Casa mia invites food enthusiasts to explore its menu and enjoy a memorable dining experience.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9395,14 +13766,72 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for something fun to do, check out Amigos located at HVJ6+7VJ Amigos. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: (22.3458, 82.69633).</t>
+          <t>Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>What highly-rated Pizzeria destination with GPS coordinates (22.3458, 82.69633) is a must-visit in Korba?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore Plage Korba for a refreshing swim and sunbathing session.
+**Mid-Morning:**
+* Visit Fontaine de Korba for a moment of relaxation and take in the local atmosphere.
+**Midday:**
+* Try local Tunisian cuisine at Street food el benna, known for its authentic dishes.
+**Afternoon:**
+* Visit Lac de Korba (Cite jerbi.Essabkha) for a peaceful stroll and enjoy the scenic views.
+**Evening:**
+* Head to VAPIANO for a delightful dinner of fresh pasta or pizza.
+**Night:**
+* Experience the charming ambiance and local culture at Cafe Arabesque. H for a cozy evening with beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CUP N CAKE is a highly-rated (4.4) cafe located at HVG7+HM7, Bd de l'Environnement in Korba, coordinates (22.3458, 82.69633). It offers a variety of cafe items and has received positive reviews from customers.
+Nestled along the coast of Korba, the Africa Jade Thalasso Hotel is a luxurious retreat offering a blend of comfort and elegance. With its five restaurants and five bars, guests can indulge in culinary delights and sip refreshing beverages. The hotel boasts an outdoor swimming pool, perfect for relaxation and recreation. Its convenient location in the heart of Korba, Tunisia, makes it an ideal base for exploring the city's attractions and experiencing the vibrant local culture.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+KORBA is a Conseiller en gestion des affaires located in KORBA, Tunisia on the coordinates (36.574846845183, 10.867309122048). It is open from 08:00-18:00 and offers a variety of financial services. The main category of this place is Conseiller en gestion des affaires and it has a rating of 4.2 out of 5 stars.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9504,12 +13933,66 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a well-rated gas station, Agil Korba is a top choice. Located at HVF5+47J Agil Korba, Korba, this 4.3-star destination offers 24/7 service, making it convenient for drivers at any time. For more details, visit their website or contact them directly using the provided coordinates.</t>
+          <t>Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly rated gas station with convenient 24/7 service?</t>
+          <t>Day Plan:
+Morning: Explore the historical ruins of Korba, Tunisia, at Ancien Pont De Korba.
+Mid-Morning: Visit ATPNE Korba, a museum showcasing the region's rich history and culture.
+Midday: Indulge in authentic Tunisian cuisine at Restaurant El Baldi Chaouch, known for its delectable poultry dishes.
+Afternoon: Relax and soak up the sun at the beautiful Plage de Korba, a beach offering crystal-clear waters and soft white sand.
+Evening: Take a leisurely stroll through the vibrant streets of Korba, experiencing the local culture and atmosphere.
+Night: End the day with a refreshing drink at Dio Scatenato, a popular bar with a great ambiance and friendly staff.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+CAFE MIAMI is a highly rated (4.1/5) cafe located at (36.573264102529, 10.863528601056) in korba. It has 14 reviews and is open from 15:00 to 22:00, everyday.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+W.Food is a restaurant located in Korba, Tunisia (36.6412521, 10.7603226). It has a 5.0 rating based on one review and is owned by W.Food (proprietaire).
+KORBA, Tunisia is a town in the north-eastern part of the country. It is located on the coast of the Mediterranean Sea, and is known for its beautiful beaches and clear waters. The town is also home to a number of historical sites, including the ruins of a Roman amphitheatre and an Arab fortress. The town is relatively small, with a population of just over 2,000 people. It is a popular tourist destination, and is also a popular spot for fishing and boating.
+Restaurant Del Capo is a highly-rated pizzeria located in Korba, Tunisia. It serves delicious pizza and other fast food options. The restaurant is open 24 hours a day, making it a convenient choice for late-night cravings. It is easily accessible at 01 Avenue Habib Bourguiba, Korba. With a 4.1-star rating based on 8 reviews, it is a popular choice among locals and tourists alike.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+VAPIANO is a casual restaurant located in Korba, offering a laid-back ambiance and a menu featuring freshly made pasta prepared to order, along with pizzas and salads. Located at HVG7+9MC VAPIANO, Bd de l'Environnement, the restaurant has a convenient location and is open from 5 PM to 1 AM, making it a great option for evening dining. With a rating of 5.0 based on 3 reviews, VAPIANO has received positive feedback from its patrons for its delicious food and inviting atmosphere.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+il Castello B&amp;B is a guest house ideally located in Korba, Tunisia. It boasts a rating of 4.3 out of 5, with its featured image showcasing its charming exterior. Situated at coordinates (39.9815728, 16.6160273), il Castello B&amp;B is a popular choice for travelers seeking comfort and convenience during their stay.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba** is a museum in Korba, Tunisia. It is open 24 hours a day and offers a variety of exhibits on the history and culture of the region. The museum is located at HVG7+W8W ATPNE Korba, Ben Achour, Rue Taher Haded, Korba.
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9603,12 +14086,67 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in Korba and looking for a reliable taxi service, check out Station De Taxi at HVF5+G8W. This highly-rated station provides a convenient way to get around the city, whether you're a local or a visitor. With a rating of 3.0, it's a trusted spot for transportation needs. To contact them, you can visit their website or give them a call.</t>
+          <t>mHT@ ltksy qrb@ Station De Taxi is a taxi station with an average rating of 3.0 based on 5 reviews. It's located in korba, India at the following coordinates: (22.3458, 82.69633).</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where in Korba can you find a highly-rated taxi service conveniently located for both locals and visitors?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage de Korba, enjoying its crystal-clear waters and soft white sand.
+Mid-Morning: Visit the ATPNE Korba, a state-of-the-art museum showcasing diverse exhibits, and immerse yourself in its thought-provoking displays.
+Midday: Try local cuisine at the highly-rated Restaurant PICCALILLI Korba, known for its delicious offerings.
+Afternoon: Take a guided tour of the charming "Il Castello B&amp;B," surrounded by serene landscapes, and appreciate its architectural beauty.
+Evening: Enjoy scenic views at the Ancien Pont De Korba, a historic bridge offering a glimpse into Korba's past, and capture memorable moments.
+Night: Experience the vibrant atmosphere at Dio Scatenato, a popular bar renowned for its friendly staff and lively energy.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe KING is a Cafe in Korba, Tunisia located at the coordinates (36.6412521, 10.7603226). It has a rating of 5.0 based on 1 review and has a phone number of 50 462 588.
+The Africa Jade Thalasso Hotel Korba is a luxurious beachfront resort located in Korba, Tunisia. It features elegant accommodations, an outdoor pool, five restaurants, and five bars. The hotel is situated at the coordinates (36.6412521, 10.7603226) and has a rating of 4.0 out of 5 based on 837 reviews. The hotel's main category is Hotel, and its other categories include Complex, Restaurant, Pool, and Wellness Center. It is known for its beautiful beach, all-inclusive amenities, friendly staff, and lively entertainment program.
+Restaurant PICCALILLI Korba is a highly rated (4.5/5) restaurant located in Korba, Tunisia. Unfortunately, specific details about its offerings, website, and contact information are not currently available.
+KORBA is a place in Tunisia located at coordinates (36.57861, 10.85861). It is a popular destination for tourists, offering a variety of attractions including a beautiful beach, historical sites, and cultural landmarks. One of the most popular attractions in KORBA is the beach, which is known for its soft white sand and crystal-clear waters. Visitors can enjoy swimming, sunbathing, and playing in the sand.
+First One is a pizzeria located in Korba, Tunisia at the coordinates (22.3458, 82.69633). It has a rating of 4.0 stars based on 2 reviews and is open from 15:00 to 23:00 every day except Sunday.
+MUMBAI is an Indian Restaurant located in Korba, India. It offers a variety of Indian dishes and has a rating of 4.0 out of 5 on Google. It is situated at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+Plage de Korba is a beautiful beach located in Korba, Tunisia. It offers a wide range of activities, including swimming, sunbathing, and fishing. The beach is also a popular spot for picnics and barbecues. Plage de Korba is located at (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+Agil Korba is a gas station located at (36.5728529, 10.8583212), conveniently open 24 hours a day. Located in HVF5+47J Agil Korba, Korba, the station offers a range of services to meet your fueling needs. With its easy accessibility and around-the-clock availability, Agil Korba is the perfect pit stop for drivers.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9710,12 +14248,67 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in korba and looking for a top-rated gas station, check out OLA KORBA located at HRFX+GXJ OLA KORBA, RR44, Korba. This gas station is perfect for travelers and offers a range of services to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: not available, but closed on not available. To get there, use these GPS coordinates: 22.3458, 82.69633. For more details, visit their website at not available or call them at 56 338 779.</t>
+          <t>OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>What is the location of the top-rated gas station in Korba and what makes it stand out?</t>
+          <t>Day Plan:
+Morning: Explore **MUMBAI**, an Indian restaurant known for its delicious cuisine.
+Mid-Morning: Visit **ATPNE Korba**, a museum showcasing diverse exhibits open 24 hours a day.
+Midday: Try local cuisine at **Waffle Cap**, highly rated for its extensive breakfast options and friendly service.
+Afternoon: Enjoy scenic views and local culture at **Ancien Pont De Korba**, a historic bridge popular with locals and tourists.
+Evening: Relax with a drink at **Dio Scatenato**, a bar with a great atmosphere and friendly staff.
+Night: Engage in outdoor activities like swimming, sunbathing, and fishing at **Plage de Korba**, a popular beach offering a range of recreational options.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Nestled in Korba, Cafe du Lac is a highly-rated cafe that welcomes locals and tourists alike. It offers a cozy and inviting ambiance, making it an ideal spot for relaxing and enjoying a cup of coffee or a light meal. With a rating of 4.5 out of 5 based on 13 reviews, Cafe du Lac is highly praised for its quality service and delicious offerings. Its convenient location (22.3458, 82.69633) makes it easily accessible.
+Africa Jade Thalasso Hotel is an elegant beach resort located in Korba, Tunisia. It features comfortable accommodations, an outdoor swimming pool, five restaurants, and five bars. The hotel is conveniently located near the beach and offers a range of amenities to ensure a relaxing and enjoyable stay for guests.
+Waffle Cap is a renowned restaurant located on Bd de l'Environnement in Korba. It has garnered an impressive rating of 4.6 stars based on 221 reviews. Open from 7:30 PM to 4:00 AM, the restaurant offers an extensive selection of breakfast options and beverages. Customers commend the friendly service, wide variety of choices, and reasonable prices. Waffle Cap's strategic location, with coordinates (36.6412521, 10.7603226), makes it easily accessible to patrons.
+This place is KORBA, Tunisia, located at 36.574846845183 latitude and 10.867309122048 longitude. KORBA offers business management consulting services.
+Amigos is a Pizzeria located in korba (22.3458, 82.69633). It has a rating of 5.0 and offers a wide variety of pizzas. Amigos is owned by Amigos (proprietaire) and has a website.
+**MUMBAI** is an Indian restaurant located in Korba, India. It offers a variety of Indian dishes, and is well rated with 8 reviews. The restaurant is located at the coordinates (22.3458, 82.69633).
+Nes cute korba is a fast food restaurant located in Korba, India. It offers a variety of dishes, including burgers, sandwiches, and fries. The restaurant is located at coordinates (22.3458, 82.69633) and is open from 11:00am to 1:00am, 7 days a week.
+Tucked away in Korba, VAPIANO brings a laid-back dining experience with its made-to-order fresh pasta, delectable pizzas, and crisp salads. Situated at coordinates (36.575967, 10.865034), VAPIANO is open from 5:00 PM to 1:00 AM, and has garnered a remarkable 5.0-star rating from reviewers.
+Cafe Arabesque. H is a popular 24-hour cafeteria situated on HVC4+9XJ in Korba. It's a top-rated spot with a 5.0-star rating based on 3 reviews. It offers a cozy and welcoming ambiance, making it an ideal destination for locals and travelers alike to unwind and savor their favorite beverages and snacks.
+"Il Castello B&amp;B" is a charming bed and breakfast located in Korba, Tunisia. Nestled on route kelibia km 2, it offers a serene retreat just a short distance from the city center. With a rating of 4.3 out of 5, it boasts of comfortable accommodations and attentive service. The B&amp;B is conveniently situated at coordinates (39.9815728, 16.6160273), making it easily accessible for travelers.
+Residence Machmoucha is a cozy accommodation located in the heart of Korba, offering a comfortable and convenient stay for travelers. It boasts a prime location on Bd de l'Environnement (HVF9+V2H). The property has received a perfect 5.0 rating from its guest, highlighting its exceptional quality and service.
+The Plage de Korba is a beach located in Korba, Tunisia. It has a rating of 4.4 out of 5 based on 83 reviews. The beach offers a variety of activities, including swimming, sunbathing, and fishing. It is also a popular spot for picnics and barbecues. The beach is located at coordinates (36.5723699, 10.8675395).
+Located at coordinates (36.5723699, 10.8675395), Plage Korba is a popular tourist attraction in Korba, Tunisia. It offers a picturesque beachfront with crystal-clear waters and soft white sand, perfect for swimming, sunbathing, and beach activities.
+**Ancien Pont De Korba** is a bridge situated in Korba, Tunisia. It offers scenic views and is a popular spot for locals and tourists alike. The bridge is easily accessible and provides a great way to experience the local culture.
+**ATPNE Korba**
+Located in Korba, ATPNE is a state-of-the-art museum dedicated to showcasing a diverse range of exhibits. Situated near the center of the city, the museum offers extended hours, remaining open 24 hours a day to accommodate visitors' schedules. With a rating of 4.2 out of 5 stars based on 5 reviews, ATPNE Korba has received praise for its thought-provoking displays and engaging atmosphere. The museum's precise location can be found at the following coordinates: (22.3458, 82.69633).
+Fontaine de Korba is a popular fountain located in Korba, Tunisia. This fountain is a popular spot for relaxation and offers a refreshing respite from the bustling city. Its precise coordinates are (58.974910773791, 25.611545697605).
+Nestled in the heart of Korba, Lac de Korba (Cite jerbi.Essabkha) is a picturesque park that offers a serene escape amidst the bustling city. Situated at coordinates (22.3458, 82.69633), this sanctuary provides ample space for recreation and relaxation.
+Dio Scatenato is a bar located in Korba, Tunisia. The bar has a 5.0 rating and is known for its great atmosphere and friendly staff. It's located at the coordinates (36.6412521, 10.7603226) and is a great place to relax and have a drink.
+Street food el benna is a Tunisian restaurant located in Korba, offering a wide variety of traditional dishes. The restaurant is conveniently located at coordinates (22.3458, 82.69633) and is open from 9:00 AM to 9:00 PM during the week, except on Sundays. With a 5.0 rating and positive reviews, Street food el benna is a popular dining destination in the area. It features a friendly and inviting atmosphere, making it a great place to gather with friends and family.
+Restaurant El Baldi Chaouch is a Restaurant de volaille located in HVM7+7WX, Korba. It's a spot that's well-rated, with a score of 4.0 from 2 reviews.
+OLA KORBA is a gas station located in Korba, India at the coordinates (22.3458, 82.69633). It has a rating of 5.0 out of 5 with 4 reviews.
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
